--- a/raw_data/ETC-USD_4h_process.xlsx
+++ b/raw_data/ETC-USD_4h_process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="196">
   <si>
     <t>Open</t>
   </si>
@@ -58,129 +58,6 @@
     <t>sell_rsi_9</t>
   </si>
   <si>
-    <t>2023-12-27 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-27 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 09:00:00-03:00</t>
-  </si>
-  <si>
     <t>2024-01-03 13:00:00-03:00</t>
   </si>
   <si>
@@ -599,6 +476,129 @@
   </si>
   <si>
     <t>2024-01-26 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-26 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 13:00:00-03:00</t>
   </si>
   <si>
     <t>yes</t>
@@ -1014,19 +1014,19 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>22.15696907043457</v>
+        <v>20.3333568572998</v>
       </c>
       <c r="C2">
-        <v>22.69347763061523</v>
+        <v>20.42996215820312</v>
       </c>
       <c r="D2">
-        <v>22.15518379211425</v>
+        <v>19.82390594482422</v>
       </c>
       <c r="E2">
-        <v>22.68057823181152</v>
+        <v>19.96299743652344</v>
       </c>
       <c r="F2">
-        <v>22501440</v>
+        <v>7011808</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1034,19 +1034,19 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>22.69371795654297</v>
+        <v>19.96526336669922</v>
       </c>
       <c r="C3">
-        <v>22.9580135345459</v>
+        <v>20.19369125366211</v>
       </c>
       <c r="D3">
-        <v>22.50486183166504</v>
+        <v>19.94533729553223</v>
       </c>
       <c r="E3">
-        <v>22.53873634338379</v>
+        <v>20.02987861633301</v>
       </c>
       <c r="F3">
-        <v>76629056</v>
+        <v>4038496</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1054,19 +1054,19 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>22.54389190673828</v>
+        <v>20.03253936767578</v>
       </c>
       <c r="C4">
-        <v>22.96578788757324</v>
+        <v>20.22304916381836</v>
       </c>
       <c r="D4">
-        <v>22.45527076721192</v>
+        <v>19.90801811218262</v>
       </c>
       <c r="E4">
-        <v>22.89303207397461</v>
+        <v>20.17148017883301</v>
       </c>
       <c r="F4">
-        <v>53386880</v>
+        <v>7994784</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1074,19 +1074,19 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>22.89405059814453</v>
+        <v>20.16983604431152</v>
       </c>
       <c r="C5">
-        <v>22.97783088684082</v>
+        <v>20.27109336853028</v>
       </c>
       <c r="D5">
-        <v>22.57168388366699</v>
+        <v>20.04815483093262</v>
       </c>
       <c r="E5">
-        <v>22.94726371765137</v>
+        <v>20.04815483093262</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>7457760</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1094,19 +1094,19 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>22.94640350341797</v>
+        <v>20.04953765869141</v>
       </c>
       <c r="C6">
-        <v>24.19894409179688</v>
+        <v>20.12335586547852</v>
       </c>
       <c r="D6">
-        <v>22.94640350341797</v>
+        <v>19.88767623901367</v>
       </c>
       <c r="E6">
-        <v>23.30797386169434</v>
+        <v>20.02174568176269</v>
       </c>
       <c r="F6">
-        <v>221220992</v>
+        <v>10113792</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1114,19 +1114,19 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>23.30393218994141</v>
+        <v>20.02340126037598</v>
       </c>
       <c r="C7">
-        <v>23.30480003356934</v>
+        <v>20.45666313171387</v>
       </c>
       <c r="D7">
-        <v>22.67104148864746</v>
+        <v>19.99522590637207</v>
       </c>
       <c r="E7">
-        <v>22.80132675170898</v>
+        <v>20.39711952209473</v>
       </c>
       <c r="F7">
-        <v>13140672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1134,19 +1134,19 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>22.79534149169922</v>
+        <v>20.39572334289551</v>
       </c>
       <c r="C8">
-        <v>22.79534149169922</v>
+        <v>20.47860717773437</v>
       </c>
       <c r="D8">
-        <v>22.12761497497558</v>
+        <v>20.23472213745117</v>
       </c>
       <c r="E8">
-        <v>22.5014591217041</v>
+        <v>20.47860717773437</v>
       </c>
       <c r="F8">
-        <v>16091008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1154,19 +1154,19 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>22.49640846252441</v>
+        <v>20.48271560668945</v>
       </c>
       <c r="C9">
-        <v>23.2498836517334</v>
+        <v>20.68642997741699</v>
       </c>
       <c r="D9">
-        <v>22.21330261230469</v>
+        <v>20.44547080993652</v>
       </c>
       <c r="E9">
-        <v>22.83919906616211</v>
+        <v>20.50196266174316</v>
       </c>
       <c r="F9">
-        <v>58885184</v>
+        <v>7088272</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1174,19 +1174,19 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>22.84056854248047</v>
+        <v>20.50140190124512</v>
       </c>
       <c r="C10">
-        <v>22.85598373413086</v>
+        <v>20.60558891296387</v>
       </c>
       <c r="D10">
-        <v>22.30692863464355</v>
+        <v>19.89724349975586</v>
       </c>
       <c r="E10">
-        <v>22.30692863464355</v>
+        <v>19.99930763244629</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>14885520</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1194,22 +1194,22 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>22.30705833435058</v>
+        <v>20.00047302246094</v>
       </c>
       <c r="C11">
-        <v>22.78000831604004</v>
+        <v>20.13711738586425</v>
       </c>
       <c r="D11">
-        <v>22.30372428894043</v>
+        <v>19.96866226196289</v>
       </c>
       <c r="E11">
-        <v>22.77799415588379</v>
+        <v>20.04476928710937</v>
       </c>
       <c r="F11">
-        <v>7887168</v>
+        <v>5844400</v>
       </c>
       <c r="L11">
-        <v>51.49094843876362</v>
+        <v>45.9289220361339</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1217,22 +1217,22 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>22.77663993835449</v>
+        <v>20.04454040527344</v>
       </c>
       <c r="C12">
-        <v>23.33488464355469</v>
+        <v>20.22361946105957</v>
       </c>
       <c r="D12">
-        <v>22.67729949951172</v>
+        <v>19.8962631225586</v>
       </c>
       <c r="E12">
-        <v>22.7868480682373</v>
+        <v>19.89776802062988</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>6662576</v>
       </c>
       <c r="L12">
-        <v>51.71203746456001</v>
+        <v>39.21498871693515</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1240,22 +1240,22 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>22.79527282714844</v>
+        <v>19.89810562133789</v>
       </c>
       <c r="C13">
-        <v>22.87252998352051</v>
+        <v>20.02422142028809</v>
       </c>
       <c r="D13">
-        <v>22.18471717834473</v>
+        <v>19.66729545593262</v>
       </c>
       <c r="E13">
-        <v>22.4358901977539</v>
+        <v>19.69651222229004</v>
       </c>
       <c r="F13">
-        <v>2042144</v>
+        <v>6258768</v>
       </c>
       <c r="L13">
-        <v>42.97720030108714</v>
+        <v>32.00833435016933</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1263,22 +1263,22 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>22.43400382995605</v>
+        <v>19.71585845947266</v>
       </c>
       <c r="C14">
-        <v>22.45624923706055</v>
+        <v>19.88630676269531</v>
       </c>
       <c r="D14">
-        <v>21.96823883056641</v>
+        <v>19.47416687011719</v>
       </c>
       <c r="E14">
-        <v>22.45624923706055</v>
+        <v>19.86082077026367</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>9481072</v>
       </c>
       <c r="L14">
-        <v>43.5989352543107</v>
+        <v>41.82728759174636</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1286,22 +1286,22 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>22.46701622009277</v>
+        <v>19.85891532897949</v>
       </c>
       <c r="C15">
-        <v>22.62507438659668</v>
+        <v>20.12228012084961</v>
       </c>
       <c r="D15">
-        <v>22.25726890563965</v>
+        <v>19.85262680053711</v>
       </c>
       <c r="E15">
-        <v>22.36601257324219</v>
+        <v>20.12228012084961</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>790448</v>
       </c>
       <c r="L15">
-        <v>41.35081718743646</v>
+        <v>53.77714713564323</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1309,5739 +1309,5736 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>22.36622810363769</v>
+        <v>20.12386322021484</v>
       </c>
       <c r="C16">
-        <v>23.17500877380371</v>
+        <v>20.22184181213379</v>
       </c>
       <c r="D16">
-        <v>22.36189651489257</v>
+        <v>20.00136184692383</v>
       </c>
       <c r="E16">
-        <v>22.82938575744629</v>
+        <v>20.0720100402832</v>
       </c>
       <c r="F16">
-        <v>28163552</v>
+        <v>1087824</v>
       </c>
       <c r="L16">
-        <v>54.81160642515552</v>
+        <v>51.48934339438958</v>
       </c>
       <c r="M16">
-        <v>53.33216475265097</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>51.4054473144353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B17">
-        <v>22.82958221435547</v>
+        <v>20.07276916503906</v>
       </c>
       <c r="C17">
-        <v>22.90502166748047</v>
+        <v>20.09984397888184</v>
       </c>
       <c r="D17">
-        <v>22.1993293762207</v>
+        <v>19.38327789306641</v>
       </c>
       <c r="E17">
-        <v>22.44882202148437</v>
+        <v>19.74342346191406</v>
       </c>
       <c r="F17">
-        <v>9947232</v>
+        <v>22711392</v>
       </c>
       <c r="L17">
-        <v>45.2218803354426</v>
+        <v>39.21999923697392</v>
       </c>
       <c r="M17">
-        <v>45.92540114986694</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>41.3837919248466</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B18">
-        <v>22.44848442077637</v>
+        <v>19.74517631530762</v>
       </c>
       <c r="C18">
-        <v>22.69832229614257</v>
+        <v>19.93649291992188</v>
       </c>
       <c r="D18">
-        <v>22.30765914916992</v>
+        <v>19.68094253540039</v>
       </c>
       <c r="E18">
-        <v>22.68220329284668</v>
+        <v>19.77267646789551</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>113872</v>
       </c>
       <c r="L18">
-        <v>51.12172605579431</v>
+        <v>40.63675449805655</v>
       </c>
       <c r="M18">
-        <v>50.46842189196073</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>42.45929307374074</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B19">
-        <v>22.6815242767334</v>
+        <v>19.77303886413575</v>
       </c>
       <c r="C19">
-        <v>22.73840713500977</v>
+        <v>19.96759986877441</v>
       </c>
       <c r="D19">
-        <v>22.3655891418457</v>
+        <v>19.6697769165039</v>
       </c>
       <c r="E19">
-        <v>22.38181686401367</v>
+        <v>19.9532356262207</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1657376</v>
       </c>
       <c r="L19">
-        <v>44.22465339380524</v>
+        <v>48.90665055373078</v>
       </c>
       <c r="M19">
-        <v>45.20425424180841</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>48.71424038706581</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B20">
-        <v>22.38245582580566</v>
+        <v>19.95132446289062</v>
       </c>
       <c r="C20">
-        <v>22.41664123535156</v>
+        <v>20.10489845275879</v>
       </c>
       <c r="D20">
-        <v>22.22765922546387</v>
+        <v>19.88884162902832</v>
       </c>
       <c r="E20">
-        <v>22.28131294250488</v>
+        <v>19.92876243591309</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>5705936</v>
       </c>
       <c r="L20">
-        <v>42.08735036958272</v>
+        <v>47.88935994533617</v>
       </c>
       <c r="M20">
-        <v>43.56685864974036</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>47.95334816037062</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B21">
-        <v>22.27644348144531</v>
+        <v>19.9283618927002</v>
       </c>
       <c r="C21">
-        <v>22.41798591613769</v>
+        <v>19.96753883361816</v>
       </c>
       <c r="D21">
-        <v>21.91138458251953</v>
+        <v>19.7845287322998</v>
       </c>
       <c r="E21">
-        <v>21.98691940307617</v>
+        <v>19.8826847076416</v>
       </c>
       <c r="F21">
-        <v>3664544</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>22.61249761581421</v>
+        <v>20.0293098449707</v>
       </c>
       <c r="L21">
-        <v>36.30544227624715</v>
+        <v>45.86846242408628</v>
       </c>
       <c r="M21">
-        <v>39.09927250222226</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>46.48127169563296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B22">
-        <v>21.98664665222168</v>
+        <v>19.88252830505371</v>
       </c>
       <c r="C22">
-        <v>22.2725658416748</v>
+        <v>20.03134727478028</v>
       </c>
       <c r="D22">
-        <v>21.96910285949707</v>
+        <v>19.80363464355469</v>
       </c>
       <c r="E22">
-        <v>22.21818161010743</v>
+        <v>19.88956832885743</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>22.59372066316151</v>
+        <v>20.02265548706055</v>
       </c>
       <c r="H22">
-        <v>22.589377784729</v>
+        <v>20.0256383895874</v>
       </c>
       <c r="L22">
-        <v>43.20128039415199</v>
+        <v>46.24967287459835</v>
       </c>
       <c r="M22">
-        <v>43.9607685176094</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>46.74429134253441</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B23">
-        <v>22.21793174743652</v>
+        <v>19.88969421386719</v>
       </c>
       <c r="C23">
-        <v>22.41666984558105</v>
+        <v>20.03146743774414</v>
       </c>
       <c r="D23">
-        <v>22.18401527404785</v>
+        <v>19.88969421386719</v>
       </c>
       <c r="E23">
-        <v>22.31514739990234</v>
+        <v>19.96711540222168</v>
       </c>
       <c r="F23">
-        <v>105904</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>22.56839582104703</v>
+        <v>20.01760638843883</v>
       </c>
       <c r="H23">
-        <v>22.57819833755493</v>
+        <v>20.02250022888184</v>
       </c>
       <c r="L23">
-        <v>45.96096053260347</v>
+        <v>50.65388633259285</v>
       </c>
       <c r="M23">
-        <v>45.91043141775064</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>49.74090139075049</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B24">
-        <v>22.31497001647949</v>
+        <v>19.9686450958252</v>
       </c>
       <c r="C24">
-        <v>22.42106246948243</v>
+        <v>20.01928329467773</v>
       </c>
       <c r="D24">
-        <v>22.20222473144531</v>
+        <v>19.69321632385254</v>
       </c>
       <c r="E24">
-        <v>22.25622749328613</v>
+        <v>19.74596214294434</v>
       </c>
       <c r="F24">
-        <v>947792</v>
+        <v>256144</v>
       </c>
       <c r="G24">
-        <v>22.54001688215968</v>
+        <v>19.99291145703024</v>
       </c>
       <c r="H24">
-        <v>22.54635810852051</v>
+        <v>20.0012243270874</v>
       </c>
       <c r="L24">
-        <v>44.4835023128003</v>
+        <v>40.10962225053981</v>
       </c>
       <c r="M24">
-        <v>44.88847953957892</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>42.41161791844631</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B25">
-        <v>22.25660896301269</v>
+        <v>19.74405670166016</v>
       </c>
       <c r="C25">
-        <v>22.3655014038086</v>
+        <v>19.88197326660156</v>
       </c>
       <c r="D25">
-        <v>22.17948722839355</v>
+        <v>19.64209747314453</v>
       </c>
       <c r="E25">
-        <v>22.18926429748535</v>
+        <v>19.68161010742188</v>
       </c>
       <c r="F25">
-        <v>1717616</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>22.50813028355292</v>
+        <v>19.96461133433857</v>
       </c>
       <c r="H25">
-        <v>22.50845813751221</v>
+        <v>19.98289709091187</v>
       </c>
       <c r="L25">
-        <v>42.72736345791896</v>
+        <v>37.55077768726649</v>
       </c>
       <c r="M25">
-        <v>43.69795329387609</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>40.53971967398621</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B26">
-        <v>22.19004440307617</v>
+        <v>19.68159675598145</v>
       </c>
       <c r="C26">
-        <v>22.19441986083984</v>
+        <v>19.78349685668945</v>
       </c>
       <c r="D26">
-        <v>21.69277000427246</v>
+        <v>19.46373558044434</v>
       </c>
       <c r="E26">
-        <v>21.90753364562988</v>
+        <v>19.77266120910645</v>
       </c>
       <c r="F26">
-        <v>7765568</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>22.45353058919628</v>
+        <v>19.94716132295383</v>
       </c>
       <c r="H26">
-        <v>22.43843612670899</v>
+        <v>19.97044286727905</v>
       </c>
       <c r="L26">
-        <v>36.00041844210254</v>
+        <v>43.30775391395701</v>
       </c>
       <c r="M26">
-        <v>39.01019884870852</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>44.28655826426198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B27">
-        <v>21.91036224365234</v>
+        <v>19.77228736877441</v>
       </c>
       <c r="C27">
-        <v>22.11112594604492</v>
+        <v>19.7855339050293</v>
       </c>
       <c r="D27">
-        <v>21.75020027160645</v>
+        <v>19.09420394897461</v>
       </c>
       <c r="E27">
-        <v>21.76897048950196</v>
+        <v>19.23061561584473</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>19277896</v>
       </c>
       <c r="G27">
-        <v>22.39129785286043</v>
+        <v>19.88202080412573</v>
       </c>
       <c r="H27">
-        <v>22.38681831359863</v>
+        <v>19.91211767196655</v>
       </c>
       <c r="L27">
-        <v>33.1156481815568</v>
+        <v>26.77606343651944</v>
       </c>
       <c r="M27">
-        <v>36.91280880733595</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>31.54330062392069</v>
+      </c>
+      <c r="N27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B28">
-        <v>21.77168083190918</v>
+        <v>19.23788642883301</v>
       </c>
       <c r="C28">
-        <v>21.96891212463379</v>
+        <v>19.33500099182129</v>
       </c>
       <c r="D28">
-        <v>21.53638458251953</v>
+        <v>18.50458145141602</v>
       </c>
       <c r="E28">
-        <v>21.94603538513184</v>
+        <v>18.81915473937988</v>
       </c>
       <c r="F28">
-        <v>11507728</v>
+        <v>47099368</v>
       </c>
       <c r="G28">
-        <v>22.35081944670329</v>
+        <v>19.78539661642156</v>
       </c>
       <c r="H28">
-        <v>22.35904712677002</v>
+        <v>19.82914505004883</v>
       </c>
       <c r="L28">
-        <v>40.02462704501649</v>
+        <v>20.19334680419693</v>
       </c>
       <c r="M28">
-        <v>41.25902730155374</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>25.53645407444927</v>
+      </c>
+      <c r="N28" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B29">
-        <v>21.94665336608887</v>
+        <v>18.81961822509766</v>
       </c>
       <c r="C29">
-        <v>22.06241416931152</v>
+        <v>19.40555953979492</v>
       </c>
       <c r="D29">
-        <v>21.91790390014648</v>
+        <v>18.7829647064209</v>
       </c>
       <c r="E29">
-        <v>21.95387077331543</v>
+        <v>19.27889442443848</v>
       </c>
       <c r="F29">
-        <v>895760</v>
+        <v>19076544</v>
       </c>
       <c r="G29">
-        <v>22.31473320366803</v>
+        <v>19.73935096260492</v>
       </c>
       <c r="H29">
-        <v>22.31478071212769</v>
+        <v>19.7679916381836</v>
       </c>
       <c r="L29">
-        <v>40.33146936427075</v>
+        <v>39.03354093696818</v>
       </c>
       <c r="M29">
-        <v>41.45124825932245</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>39.41834601020463</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B30">
-        <v>21.95312118530273</v>
+        <v>19.27830696105957</v>
       </c>
       <c r="C30">
-        <v>22.10331535339355</v>
+        <v>19.39143562316895</v>
       </c>
       <c r="D30">
-        <v>21.87826728820801</v>
+        <v>19.04071044921875</v>
       </c>
       <c r="E30">
-        <v>22.10331535339355</v>
+        <v>19.39143562316895</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>9589760</v>
       </c>
       <c r="G30">
-        <v>22.29551339909762</v>
+        <v>19.70772229538347</v>
       </c>
       <c r="H30">
-        <v>22.30460004806519</v>
+        <v>19.73759803771973</v>
       </c>
       <c r="L30">
-        <v>46.23380346212396</v>
+        <v>42.75518227618614</v>
       </c>
       <c r="M30">
-        <v>45.1387293372887</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>42.25622793880688</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B31">
-        <v>22.10083770751953</v>
+        <v>19.39289093017578</v>
       </c>
       <c r="C31">
-        <v>22.45174980163575</v>
+        <v>19.68840599060058</v>
       </c>
       <c r="D31">
-        <v>22.05391120910645</v>
+        <v>19.39289093017578</v>
       </c>
       <c r="E31">
-        <v>22.4490852355957</v>
+        <v>19.64303016662598</v>
       </c>
       <c r="F31">
-        <v>5892592</v>
+        <v>14327296</v>
       </c>
       <c r="G31">
-        <v>22.3094744751429</v>
+        <v>19.70184119276915</v>
       </c>
       <c r="H31">
-        <v>22.28815460205078</v>
+        <v>19.71751108169556</v>
       </c>
       <c r="I31">
-        <v>22.44525279998779</v>
+        <v>19.86687482198079</v>
       </c>
       <c r="L31">
-        <v>57.24278957795814</v>
+        <v>50.37411309916278</v>
       </c>
       <c r="M31">
-        <v>52.58027080013053</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>48.10849125963922</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B32">
-        <v>22.44968223571777</v>
+        <v>19.64156532287598</v>
       </c>
       <c r="C32">
-        <v>22.49945640563965</v>
+        <v>20.31919860839844</v>
       </c>
       <c r="D32">
-        <v>22.28279876708984</v>
+        <v>19.58391571044922</v>
       </c>
       <c r="E32">
-        <v>22.49945640563965</v>
+        <v>20.28878021240234</v>
       </c>
       <c r="F32">
-        <v>6645712</v>
+        <v>25397072</v>
       </c>
       <c r="G32">
-        <v>22.32674555973351</v>
+        <v>19.75519928546307</v>
       </c>
       <c r="H32">
-        <v>22.2737850189209</v>
+        <v>19.73706169128418</v>
       </c>
       <c r="I32">
-        <v>22.43921540578206</v>
+        <v>19.87773424784342</v>
       </c>
       <c r="L32">
-        <v>58.63101586743579</v>
+        <v>64.15098982764916</v>
       </c>
       <c r="M32">
-        <v>53.56834769221875</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+        <v>59.46401868671645</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B33">
-        <v>22.50263214111328</v>
+        <v>20.29229164123535</v>
       </c>
       <c r="C33">
-        <v>22.92630004882812</v>
+        <v>20.41884422302246</v>
       </c>
       <c r="D33">
-        <v>22.48275756835937</v>
+        <v>20.10929870605469</v>
       </c>
       <c r="E33">
-        <v>22.79485321044922</v>
+        <v>20.33224487304688</v>
       </c>
       <c r="F33">
-        <v>32334272</v>
+        <v>7896592</v>
       </c>
       <c r="G33">
-        <v>22.36930080070766</v>
+        <v>19.80765797524342</v>
       </c>
       <c r="H33">
-        <v>22.29173316955566</v>
+        <v>19.76884832382202</v>
       </c>
       <c r="I33">
-        <v>22.44775263468425</v>
+        <v>19.88781312306722</v>
       </c>
       <c r="L33">
-        <v>65.92912655307583</v>
+        <v>64.88907941337773</v>
       </c>
       <c r="M33">
-        <v>58.9679670516952</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+        <v>60.09697446604053</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B34">
-        <v>22.79403114318848</v>
+        <v>20.33490371704102</v>
       </c>
       <c r="C34">
-        <v>22.80068778991699</v>
+        <v>20.49612617492676</v>
       </c>
       <c r="D34">
-        <v>22.67616653442383</v>
+        <v>20.02556037902832</v>
       </c>
       <c r="E34">
-        <v>22.77973556518555</v>
+        <v>20.23251533508301</v>
       </c>
       <c r="F34">
-        <v>3507328</v>
+        <v>5035136</v>
       </c>
       <c r="G34">
-        <v>22.40661305202383</v>
+        <v>19.84628137159247</v>
       </c>
       <c r="H34">
-        <v>22.30790748596191</v>
+        <v>19.78743305206299</v>
       </c>
       <c r="I34">
-        <v>22.44397608439128</v>
+        <v>19.88984762827555</v>
       </c>
       <c r="L34">
-        <v>65.26621604537661</v>
+        <v>61.6145046796323</v>
       </c>
       <c r="M34">
-        <v>58.59242934275409</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+        <v>57.86434863815766</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B35">
-        <v>22.77558517456055</v>
+        <v>20.2329158782959</v>
       </c>
       <c r="C35">
-        <v>23.00840377807617</v>
+        <v>20.29384994506836</v>
       </c>
       <c r="D35">
-        <v>22.61213302612305</v>
+        <v>20.12353897094727</v>
       </c>
       <c r="E35">
-        <v>22.67457389831543</v>
+        <v>20.25930976867676</v>
       </c>
       <c r="F35">
-        <v>20301920</v>
+        <v>1674784</v>
       </c>
       <c r="G35">
-        <v>22.43097312895943</v>
+        <v>19.88382940769104</v>
       </c>
       <c r="H35">
-        <v>22.32333555221557</v>
+        <v>19.79428453445434</v>
       </c>
       <c r="I35">
-        <v>22.43488642374674</v>
+        <v>19.89688612620036</v>
       </c>
       <c r="L35">
-        <v>60.50523587547264</v>
+        <v>62.19120399765271</v>
       </c>
       <c r="M35">
-        <v>55.92436409724363</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+        <v>58.31244887898389</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B36">
-        <v>22.67249488830566</v>
+        <v>20.2602424621582</v>
       </c>
       <c r="C36">
-        <v>22.7035083770752</v>
+        <v>20.26872253417969</v>
       </c>
       <c r="D36">
-        <v>22.16697311401367</v>
+        <v>19.81985473632812</v>
       </c>
       <c r="E36">
-        <v>22.24697875976562</v>
+        <v>20.00400352478028</v>
       </c>
       <c r="F36">
-        <v>23912432</v>
+        <v>3655600</v>
       </c>
       <c r="G36">
-        <v>22.41424636812363</v>
+        <v>19.89475432742643</v>
       </c>
       <c r="H36">
-        <v>22.29421520233154</v>
+        <v>19.7908842086792</v>
       </c>
       <c r="I36">
-        <v>22.39951992034912</v>
+        <v>19.89629472096761</v>
       </c>
       <c r="L36">
-        <v>45.36698557206577</v>
+        <v>53.56477672015854</v>
       </c>
       <c r="M36">
-        <v>46.62713285607308</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+        <v>52.57514940591061</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B37">
-        <v>22.24543190002441</v>
+        <v>20.01189422607422</v>
       </c>
       <c r="C37">
-        <v>22.2573070526123</v>
+        <v>20.08512687683105</v>
       </c>
       <c r="D37">
-        <v>22.06877899169922</v>
+        <v>19.62124824523925</v>
       </c>
       <c r="E37">
-        <v>22.13541793823243</v>
+        <v>19.85084342956543</v>
       </c>
       <c r="F37">
-        <v>6001632</v>
+        <v>14182896</v>
       </c>
       <c r="G37">
-        <v>22.38889832904261</v>
+        <v>19.89076242762088</v>
       </c>
       <c r="H37">
-        <v>22.27854499816895</v>
+        <v>19.79625520706177</v>
       </c>
       <c r="I37">
-        <v>22.3773229598999</v>
+        <v>19.8780855178833</v>
       </c>
       <c r="L37">
-        <v>42.26330081254284</v>
+        <v>48.97962056311292</v>
       </c>
       <c r="M37">
-        <v>44.5463428110816</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+        <v>49.43296428322696</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B38">
-        <v>22.1336727142334</v>
+        <v>19.85239791870117</v>
       </c>
       <c r="C38">
-        <v>22.22800827026367</v>
+        <v>20.4890365600586</v>
       </c>
       <c r="D38">
-        <v>21.98178672790528</v>
+        <v>19.85239791870117</v>
       </c>
       <c r="E38">
-        <v>22.00121307373047</v>
+        <v>20.01209259033203</v>
       </c>
       <c r="F38">
-        <v>1463952</v>
+        <v>27937264</v>
       </c>
       <c r="G38">
-        <v>22.35365421492332</v>
+        <v>19.9017924424128</v>
       </c>
       <c r="H38">
-        <v>22.24449548721314</v>
+        <v>19.80822601318359</v>
       </c>
       <c r="I38">
-        <v>22.36064809163411</v>
+        <v>19.86253503163656</v>
       </c>
       <c r="L38">
-        <v>38.68188772013995</v>
+        <v>53.67621664795963</v>
       </c>
       <c r="M38">
-        <v>42.11170897144495</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+        <v>52.64204549037096</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B39">
-        <v>22.00081825256348</v>
+        <v>20.01319885253906</v>
       </c>
       <c r="C39">
-        <v>22.21410942077637</v>
+        <v>21.18389511108398</v>
       </c>
       <c r="D39">
-        <v>21.94732856750488</v>
+        <v>19.79098510742188</v>
       </c>
       <c r="E39">
-        <v>22.09916687011719</v>
+        <v>21.18389511108398</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>134035792</v>
       </c>
       <c r="G39">
-        <v>22.33051900175913</v>
+        <v>20.01834723047382</v>
       </c>
       <c r="H39">
-        <v>22.23036298751831</v>
+        <v>19.86975898742676</v>
       </c>
       <c r="I39">
-        <v>22.33598035176595</v>
+        <v>19.88526611328125</v>
       </c>
       <c r="L39">
-        <v>42.6709540305935</v>
+        <v>73.56813903817851</v>
       </c>
       <c r="M39">
-        <v>44.49612799562864</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+        <v>68.35746863617224</v>
+      </c>
+      <c r="O39" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B40">
-        <v>22.10041618347168</v>
+        <v>21.18901062011719</v>
       </c>
       <c r="C40">
-        <v>22.40920448303223</v>
+        <v>21.80427360534668</v>
       </c>
       <c r="D40">
-        <v>22.06963920593262</v>
+        <v>20.79808807373047</v>
       </c>
       <c r="E40">
-        <v>22.1735668182373</v>
+        <v>21.02417945861816</v>
       </c>
       <c r="F40">
-        <v>2885104</v>
+        <v>97338592</v>
       </c>
       <c r="G40">
-        <v>22.31625062143896</v>
+        <v>20.10978652394149</v>
       </c>
       <c r="H40">
-        <v>22.22497568130493</v>
+        <v>19.92452983856201</v>
       </c>
       <c r="I40">
-        <v>22.33153495788574</v>
+        <v>19.91942850748698</v>
       </c>
       <c r="L40">
-        <v>45.68997654815528</v>
+        <v>69.02334397457648</v>
       </c>
       <c r="M40">
-        <v>46.30521720442821</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+        <v>65.18248290433792</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B41">
-        <v>22.17536163330078</v>
+        <v>21.02465057373047</v>
       </c>
       <c r="C41">
-        <v>22.36498069763184</v>
+        <v>21.20214653015137</v>
       </c>
       <c r="D41">
-        <v>21.38465309143066</v>
+        <v>20.88420486450196</v>
       </c>
       <c r="E41">
-        <v>21.3960189819336</v>
+        <v>20.88420486450196</v>
       </c>
       <c r="F41">
-        <v>25907920</v>
+        <v>16812032</v>
       </c>
       <c r="G41">
-        <v>22.23259319966574</v>
+        <v>20.18018819126516</v>
       </c>
       <c r="H41">
-        <v>22.1954306602478</v>
+        <v>19.97460584640503</v>
       </c>
       <c r="I41">
-        <v>22.28546911875407</v>
+        <v>19.94740969340006</v>
       </c>
       <c r="L41">
-        <v>28.21842647088301</v>
+        <v>65.06059274703198</v>
       </c>
       <c r="M41">
-        <v>33.87758663884349</v>
-      </c>
-      <c r="N41" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+        <v>62.44506955998654</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B42">
-        <v>21.39600563049316</v>
+        <v>20.88647651672364</v>
       </c>
       <c r="C42">
-        <v>21.39600563049316</v>
+        <v>21.52545547485352</v>
       </c>
       <c r="D42">
-        <v>19.48399925231934</v>
+        <v>20.7333869934082</v>
       </c>
       <c r="E42">
-        <v>20.32381629943848</v>
+        <v>21.2657413482666</v>
       </c>
       <c r="F42">
-        <v>150112592</v>
+        <v>75764704</v>
       </c>
       <c r="G42">
-        <v>22.05906802691781</v>
+        <v>20.27887484190166</v>
       </c>
       <c r="H42">
-        <v>22.10071239471436</v>
+        <v>20.04341449737549</v>
       </c>
       <c r="I42">
-        <v>22.20336805979411</v>
+        <v>19.99300880432129</v>
       </c>
       <c r="L42">
-        <v>17.71161468661564</v>
+        <v>70.29092545198829</v>
       </c>
       <c r="M42">
-        <v>24.22320489571184</v>
-      </c>
-      <c r="N42" t="s">
+        <v>66.56662579080138</v>
+      </c>
+      <c r="O42" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:15">
       <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B43">
-        <v>20.3333568572998</v>
+        <v>21.27172088623047</v>
       </c>
       <c r="C43">
-        <v>20.42996215820312</v>
+        <v>21.50660896301269</v>
       </c>
       <c r="D43">
-        <v>19.82390594482422</v>
+        <v>20.49376487731934</v>
       </c>
       <c r="E43">
-        <v>19.96299743652344</v>
+        <v>21.49267387390137</v>
       </c>
       <c r="F43">
-        <v>15607648</v>
+        <v>69762880</v>
       </c>
       <c r="G43">
-        <v>21.86851615506378</v>
+        <v>20.38922020844709</v>
       </c>
       <c r="H43">
-        <v>21.98310489654541</v>
+        <v>20.11969242095947</v>
       </c>
       <c r="I43">
-        <v>22.12093830108643</v>
+        <v>20.052880859375</v>
       </c>
       <c r="L43">
-        <v>15.52340023808587</v>
+        <v>72.99586321999097</v>
       </c>
       <c r="M43">
-        <v>21.95566173993387</v>
-      </c>
-      <c r="N43" t="s">
+        <v>68.76253985155525</v>
+      </c>
+      <c r="O43" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:15">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B44">
-        <v>19.96526336669922</v>
+        <v>21.48541831970215</v>
       </c>
       <c r="C44">
-        <v>20.19369125366211</v>
+        <v>21.89047050476075</v>
       </c>
       <c r="D44">
-        <v>19.94533729553223</v>
+        <v>21.08969497680664</v>
       </c>
       <c r="E44">
-        <v>20.02987861633301</v>
+        <v>21.8808536529541</v>
       </c>
       <c r="F44">
-        <v>4038496</v>
+        <v>29550912</v>
       </c>
       <c r="G44">
-        <v>21.70136728790643</v>
+        <v>20.52482324885681</v>
       </c>
       <c r="H44">
-        <v>21.87178745269775</v>
+        <v>20.22643699645996</v>
       </c>
       <c r="I44">
-        <v>22.04005928039551</v>
+        <v>20.12021528879801</v>
       </c>
       <c r="L44">
-        <v>17.64512122615412</v>
+        <v>77.02184648432201</v>
       </c>
       <c r="M44">
-        <v>23.38727024802145</v>
-      </c>
-      <c r="N44" t="s">
+        <v>72.13408710456159</v>
+      </c>
+      <c r="O44" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:15">
       <c r="A45" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B45">
-        <v>20.03253936767578</v>
+        <v>21.88669395446777</v>
       </c>
       <c r="C45">
-        <v>20.22304916381836</v>
+        <v>26.30525207519531</v>
       </c>
       <c r="D45">
-        <v>19.90801811218262</v>
+        <v>21.42216873168945</v>
       </c>
       <c r="E45">
-        <v>20.17148017883301</v>
+        <v>26.19006538391113</v>
       </c>
       <c r="F45">
-        <v>7994784</v>
+        <v>436352384</v>
       </c>
       <c r="G45">
-        <v>21.56228664162703</v>
+        <v>21.03984526113448</v>
       </c>
       <c r="H45">
-        <v>21.77089824676514</v>
+        <v>20.55185976028442</v>
       </c>
       <c r="I45">
-        <v>21.96690820058187</v>
+        <v>20.32247479756673</v>
       </c>
       <c r="L45">
-        <v>22.29374570662069</v>
+        <v>91.97104774577362</v>
       </c>
       <c r="M45">
-        <v>26.46292798737361</v>
-      </c>
-      <c r="N45" t="s">
+        <v>87.83326945487742</v>
+      </c>
+      <c r="O45" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:15">
       <c r="A46" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B46">
-        <v>20.16983604431152</v>
+        <v>26.24595260620117</v>
       </c>
       <c r="C46">
-        <v>20.27109336853028</v>
+        <v>28.71554756164551</v>
       </c>
       <c r="D46">
-        <v>20.04815483093262</v>
+        <v>25.96695327758789</v>
       </c>
       <c r="E46">
-        <v>20.04815483093262</v>
+        <v>28.30168914794922</v>
       </c>
       <c r="F46">
-        <v>7457760</v>
+        <v>494961920</v>
       </c>
       <c r="G46">
-        <v>21.42463829520027</v>
+        <v>21.70001288720854</v>
       </c>
       <c r="H46">
-        <v>21.67792930603027</v>
+        <v>20.97831115722656</v>
       </c>
       <c r="I46">
-        <v>21.87420050303141</v>
+        <v>20.59679743448893</v>
       </c>
       <c r="L46">
-        <v>21.12538589571263</v>
+        <v>94.09050428019404</v>
       </c>
       <c r="M46">
-        <v>25.50266194842585</v>
-      </c>
-      <c r="N46" t="s">
+        <v>90.6215586523721</v>
+      </c>
+      <c r="O46" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:15">
       <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B47">
-        <v>20.04953765869141</v>
+        <v>28.3165454864502</v>
       </c>
       <c r="C47">
-        <v>20.12335586547852</v>
+        <v>28.52576065063477</v>
       </c>
       <c r="D47">
-        <v>19.88767623901367</v>
+        <v>27.18609809875488</v>
       </c>
       <c r="E47">
-        <v>20.02174568176269</v>
+        <v>28.23265647888184</v>
       </c>
       <c r="F47">
-        <v>10113792</v>
+        <v>251659648</v>
       </c>
       <c r="G47">
-        <v>21.29710260306958</v>
+        <v>22.29388957736066</v>
       </c>
       <c r="H47">
-        <v>21.59056806564331</v>
+        <v>21.42841320037842</v>
       </c>
       <c r="I47">
-        <v>21.79329795837402</v>
+        <v>20.87977186838786</v>
       </c>
       <c r="L47">
-        <v>20.86199306709373</v>
+        <v>93.18580128119962</v>
       </c>
       <c r="M47">
-        <v>25.2910175775698</v>
-      </c>
-      <c r="N47" t="s">
+        <v>89.89624096864566</v>
+      </c>
+      <c r="O47" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:15">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B48">
-        <v>20.02340126037598</v>
+        <v>28.23117065429688</v>
       </c>
       <c r="C48">
-        <v>20.45666313171387</v>
+        <v>31.99358940124512</v>
       </c>
       <c r="D48">
-        <v>19.99522590637207</v>
+        <v>27.77985382080078</v>
       </c>
       <c r="E48">
-        <v>20.39711952209473</v>
+        <v>31.58865165710449</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>554731136</v>
       </c>
       <c r="G48">
-        <v>21.21528595934459</v>
+        <v>23.13886794824646</v>
       </c>
       <c r="H48">
-        <v>21.51312227249145</v>
+        <v>22.06688804626465</v>
       </c>
       <c r="I48">
-        <v>21.71712849934896</v>
+        <v>21.27363770802816</v>
       </c>
       <c r="L48">
-        <v>34.01706030390947</v>
+        <v>95.53422428884878</v>
       </c>
       <c r="M48">
-        <v>33.71178735851763</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+        <v>92.8798273167947</v>
+      </c>
+      <c r="O48" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B49">
-        <v>20.39572334289551</v>
+        <v>31.54983139038086</v>
       </c>
       <c r="C49">
-        <v>20.47860717773437</v>
+        <v>31.54983139038086</v>
       </c>
       <c r="D49">
-        <v>20.23472213745117</v>
+        <v>29.86215782165528</v>
       </c>
       <c r="E49">
-        <v>20.47860717773437</v>
+        <v>30.47338104248047</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>558457344</v>
       </c>
       <c r="G49">
-        <v>21.14831516101639</v>
+        <v>23.8056418659041</v>
       </c>
       <c r="H49">
-        <v>21.4393590927124</v>
+        <v>22.62661237716675</v>
       </c>
       <c r="I49">
-        <v>21.65368817647298</v>
+        <v>21.62430922190348</v>
       </c>
       <c r="L49">
-        <v>36.59123262941917</v>
+        <v>84.62994326637369</v>
       </c>
       <c r="M49">
-        <v>35.41367944991291</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+        <v>84.00232947030017</v>
+      </c>
+      <c r="O49" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B50">
-        <v>20.48271560668945</v>
+        <v>30.49880790710449</v>
       </c>
       <c r="C50">
-        <v>20.68642997741699</v>
+        <v>30.92106246948243</v>
       </c>
       <c r="D50">
-        <v>20.44547080993652</v>
+        <v>28.29460716247558</v>
       </c>
       <c r="E50">
-        <v>20.50196266174316</v>
+        <v>28.97289085388184</v>
       </c>
       <c r="F50">
-        <v>7088272</v>
+        <v>216492544</v>
       </c>
       <c r="G50">
-        <v>21.08955584290064</v>
+        <v>24.27539177390208</v>
       </c>
       <c r="H50">
-        <v>21.35929145812988</v>
+        <v>23.10568513870239</v>
       </c>
       <c r="I50">
-        <v>21.59437650044759</v>
+        <v>21.92578016916911</v>
       </c>
       <c r="L50">
-        <v>37.37895976252377</v>
+        <v>72.1630471584447</v>
       </c>
       <c r="M50">
-        <v>35.92147622768138</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+        <v>73.7842262066395</v>
+      </c>
+      <c r="O50" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B51">
-        <v>20.50140190124512</v>
+        <v>28.98080444335937</v>
       </c>
       <c r="C51">
-        <v>20.60558891296387</v>
+        <v>29.78825378417969</v>
       </c>
       <c r="D51">
-        <v>19.89724349975586</v>
+        <v>28.66865348815918</v>
       </c>
       <c r="E51">
-        <v>19.99930763244629</v>
+        <v>29.50313377380371</v>
       </c>
       <c r="F51">
-        <v>14885520</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>20.99044236922297</v>
+        <v>24.75064104662041</v>
       </c>
       <c r="H51">
-        <v>21.23680257797241</v>
+        <v>23.59869031906128</v>
       </c>
       <c r="I51">
-        <v>21.52812277475993</v>
+        <v>22.24646180470785</v>
       </c>
       <c r="L51">
-        <v>28.7356327949048</v>
+        <v>73.70309150398369</v>
       </c>
       <c r="M51">
-        <v>30.38455741526049</v>
-      </c>
-      <c r="N51" t="s">
+        <v>74.94411181960075</v>
+      </c>
+      <c r="O51" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B52">
-        <v>20.00047302246094</v>
+        <v>29.54214668273925</v>
       </c>
       <c r="C52">
-        <v>20.13711738586425</v>
+        <v>30.28153991699219</v>
       </c>
       <c r="D52">
-        <v>19.96866226196289</v>
+        <v>28.95808219909668</v>
       </c>
       <c r="E52">
-        <v>20.04476928710937</v>
+        <v>30.11554336547852</v>
       </c>
       <c r="F52">
-        <v>5844400</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>20.90447208903082</v>
+        <v>25.23835943924387</v>
       </c>
       <c r="H52">
-        <v>21.1140682220459</v>
+        <v>24.09002847671509</v>
       </c>
       <c r="I52">
-        <v>21.45567569732666</v>
+        <v>22.58732763926188</v>
       </c>
       <c r="L52">
-        <v>30.37378498567621</v>
+        <v>75.46664297704542</v>
       </c>
       <c r="M52">
-        <v>31.41425041131859</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+        <v>76.25103185155194</v>
+      </c>
+      <c r="O52" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B53">
-        <v>20.04454040527344</v>
+        <v>30.07788467407227</v>
       </c>
       <c r="C53">
-        <v>20.22361946105957</v>
+        <v>30.09194183349609</v>
       </c>
       <c r="D53">
-        <v>19.8962631225586</v>
+        <v>29.20290756225586</v>
       </c>
       <c r="E53">
-        <v>19.89776802062988</v>
+        <v>29.55280303955078</v>
       </c>
       <c r="F53">
-        <v>6662576</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>20.81295353735801</v>
+        <v>25.63058158472632</v>
       </c>
       <c r="H53">
-        <v>20.96921396255493</v>
+        <v>24.55105638504028</v>
       </c>
       <c r="I53">
-        <v>21.37509638468424</v>
+        <v>22.90685056050619</v>
       </c>
       <c r="L53">
-        <v>28.02992278422571</v>
+        <v>70.57396598918633</v>
       </c>
       <c r="M53">
-        <v>29.87546734307003</v>
-      </c>
-      <c r="N53" t="s">
+        <v>72.50839047639738</v>
+      </c>
+      <c r="O53" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:15">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B54">
-        <v>19.89810562133789</v>
+        <v>29.55157470703125</v>
       </c>
       <c r="C54">
-        <v>20.02422142028809</v>
+        <v>30.7605094909668</v>
       </c>
       <c r="D54">
-        <v>19.66729545593262</v>
+        <v>28.92297172546387</v>
       </c>
       <c r="E54">
-        <v>19.69651222229004</v>
+        <v>30.7605094909668</v>
       </c>
       <c r="F54">
-        <v>6258768</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>20.71145887235183</v>
+        <v>26.09693866711181</v>
       </c>
       <c r="H54">
-        <v>20.81505279541016</v>
+        <v>25.07745609283447</v>
       </c>
       <c r="I54">
-        <v>21.28977254231771</v>
+        <v>23.2740021387736</v>
       </c>
       <c r="L54">
-        <v>25.0523555579196</v>
+        <v>74.55661690230704</v>
       </c>
       <c r="M54">
-        <v>27.86316534516612</v>
-      </c>
-      <c r="N54" t="s">
+        <v>75.30932805583949</v>
+      </c>
+      <c r="O54" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:15">
       <c r="A55" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B55">
-        <v>19.71585845947266</v>
+        <v>30.73489379882812</v>
       </c>
       <c r="C55">
-        <v>19.88630676269531</v>
+        <v>32.36186218261719</v>
       </c>
       <c r="D55">
-        <v>19.47416687011719</v>
+        <v>30.3477725982666</v>
       </c>
       <c r="E55">
-        <v>19.86082077026367</v>
+        <v>30.42724800109864</v>
       </c>
       <c r="F55">
-        <v>9481072</v>
+        <v>62904192</v>
       </c>
       <c r="G55">
-        <v>20.63412813579836</v>
+        <v>26.49060315201971</v>
       </c>
       <c r="H55">
-        <v>20.67436513900757</v>
+        <v>25.58585300445556</v>
       </c>
       <c r="I55">
-        <v>21.21215775807699</v>
+        <v>23.63219006856282</v>
       </c>
       <c r="L55">
-        <v>31.71475720289048</v>
+        <v>71.55034333359242</v>
       </c>
       <c r="M55">
-        <v>31.8963252098464</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+        <v>73.09620025373958</v>
+      </c>
+      <c r="O55" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B56">
-        <v>19.85891532897949</v>
+        <v>30.43244934082031</v>
       </c>
       <c r="C56">
-        <v>20.12228012084961</v>
+        <v>30.65284729003906</v>
       </c>
       <c r="D56">
-        <v>19.85262680053711</v>
+        <v>28.65870857238769</v>
       </c>
       <c r="E56">
-        <v>20.12228012084961</v>
+        <v>29.18792152404785</v>
       </c>
       <c r="F56">
-        <v>790448</v>
+        <v>39422976</v>
       </c>
       <c r="G56">
-        <v>20.58759649807575</v>
+        <v>26.73581391311318</v>
       </c>
       <c r="H56">
-        <v>20.56813020706177</v>
+        <v>26.04504890441894</v>
       </c>
       <c r="I56">
-        <v>21.15264930725098</v>
+        <v>23.94603207906087</v>
       </c>
       <c r="L56">
-        <v>41.08955052749706</v>
+        <v>61.22256424038994</v>
       </c>
       <c r="M56">
-        <v>37.85091436769406</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+        <v>65.39929615168592</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B57">
-        <v>20.12386322021484</v>
+        <v>29.18203544616699</v>
       </c>
       <c r="C57">
-        <v>20.22184181213379</v>
+        <v>29.52428817749023</v>
       </c>
       <c r="D57">
-        <v>20.00136184692383</v>
+        <v>27.84499931335449</v>
       </c>
       <c r="E57">
-        <v>20.0720100402832</v>
+        <v>29.02756118774414</v>
       </c>
       <c r="F57">
-        <v>1087824</v>
+        <v>97454336</v>
       </c>
       <c r="G57">
-        <v>20.54072500191279</v>
+        <v>26.94415457444326</v>
       </c>
       <c r="H57">
-        <v>20.46495981216431</v>
+        <v>26.50388479232788</v>
       </c>
       <c r="I57">
-        <v>21.09608395894368</v>
+        <v>24.27259693145752</v>
       </c>
       <c r="L57">
-        <v>39.90455889363867</v>
+        <v>59.96265339856155</v>
       </c>
       <c r="M57">
-        <v>37.17785150139012</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+        <v>64.45357264748063</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B58">
-        <v>20.07276916503906</v>
+        <v>29.0045166015625</v>
       </c>
       <c r="C58">
-        <v>20.09984397888184</v>
+        <v>29.75712585449219</v>
       </c>
       <c r="D58">
-        <v>19.38327789306641</v>
+        <v>27.97749328613281</v>
       </c>
       <c r="E58">
-        <v>19.74342346191406</v>
+        <v>29.5314769744873</v>
       </c>
       <c r="F58">
-        <v>22711392</v>
+        <v>62727168</v>
       </c>
       <c r="G58">
-        <v>20.46824304373109</v>
+        <v>27.17936570171999</v>
       </c>
       <c r="H58">
-        <v>20.35207033157349</v>
+        <v>26.97985401153564</v>
       </c>
       <c r="I58">
-        <v>21.02266356150309</v>
+        <v>24.62967433929443</v>
       </c>
       <c r="L58">
-        <v>32.92268631020828</v>
+        <v>62.67789195285388</v>
       </c>
       <c r="M58">
-        <v>33.04195287799362</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+        <v>66.11195006775752</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B59">
-        <v>19.74517631530762</v>
+        <v>29.52875709533692</v>
       </c>
       <c r="C59">
-        <v>19.93649291992188</v>
+        <v>29.96939849853516</v>
       </c>
       <c r="D59">
-        <v>19.68094253540039</v>
+        <v>29.36998176574707</v>
       </c>
       <c r="E59">
-        <v>19.77267646789551</v>
+        <v>29.85682106018066</v>
       </c>
       <c r="F59">
-        <v>113872</v>
+        <v>14823168</v>
       </c>
       <c r="G59">
-        <v>20.40500971865513</v>
+        <v>27.42277073430733</v>
       </c>
       <c r="H59">
-        <v>20.2357458114624</v>
+        <v>27.41350030899048</v>
       </c>
       <c r="I59">
-        <v>20.94995708465576</v>
+        <v>24.98227189381917</v>
       </c>
       <c r="L59">
-        <v>34.07787729255728</v>
+        <v>64.43001214773025</v>
       </c>
       <c r="M59">
-        <v>33.74857331648968</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
+        <v>67.17668023032643</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B60">
-        <v>19.77303886413575</v>
+        <v>29.85664176940918</v>
       </c>
       <c r="C60">
-        <v>19.96759986877441</v>
+        <v>29.88147735595703</v>
       </c>
       <c r="D60">
-        <v>19.6697769165039</v>
+        <v>28.8466625213623</v>
       </c>
       <c r="E60">
-        <v>19.9532356262207</v>
+        <v>29.19670295715332</v>
       </c>
       <c r="F60">
-        <v>1657376</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>20.36393934661563</v>
+        <v>27.5840373000206</v>
       </c>
       <c r="H60">
-        <v>20.12472925186157</v>
+        <v>27.82212648391724</v>
       </c>
       <c r="I60">
-        <v>20.87828776041667</v>
+        <v>25.30911413828532</v>
       </c>
       <c r="L60">
-        <v>41.11918734028406</v>
+        <v>58.19399694132616</v>
       </c>
       <c r="M60">
-        <v>38.09135894820056</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
+        <v>62.86110771286562</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B61">
-        <v>19.95132446289062</v>
+        <v>29.20435905456543</v>
       </c>
       <c r="C61">
-        <v>20.10489845275879</v>
+        <v>29.31015014648437</v>
       </c>
       <c r="D61">
-        <v>19.88884162902832</v>
+        <v>28.84530448913575</v>
       </c>
       <c r="E61">
-        <v>19.92876243591309</v>
+        <v>29.01116752624512</v>
       </c>
       <c r="F61">
-        <v>5705936</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>20.32437780927904</v>
+        <v>27.71377641149556</v>
       </c>
       <c r="H61">
-        <v>20.05136642456055</v>
+        <v>28.22847461700439</v>
       </c>
       <c r="I61">
-        <v>20.79427700042725</v>
+        <v>25.62138538360596</v>
       </c>
       <c r="L61">
-        <v>40.46020473820296</v>
+        <v>56.46591991387926</v>
       </c>
       <c r="M61">
-        <v>37.73034853968498</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+        <v>61.66208344506511</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B62">
-        <v>19.9283618927002</v>
+        <v>29.01116752624512</v>
       </c>
       <c r="C62">
-        <v>19.96753883361816</v>
+        <v>29.16054153442383</v>
       </c>
       <c r="D62">
-        <v>19.7845287322998</v>
+        <v>28.5025463104248</v>
       </c>
       <c r="E62">
-        <v>19.8826847076416</v>
+        <v>28.98232650756836</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>20.28422389094836</v>
+        <v>27.82909914750217</v>
       </c>
       <c r="H62">
-        <v>20.0293098449707</v>
+        <v>28.61430387496948</v>
       </c>
       <c r="I62">
-        <v>20.70705127716064</v>
+        <v>25.91117026011149</v>
       </c>
       <c r="L62">
-        <v>39.13185375315143</v>
+        <v>56.174205352252</v>
       </c>
       <c r="M62">
-        <v>37.0189668124814</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+        <v>61.46581611357941</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B63">
-        <v>19.88252830505371</v>
+        <v>28.97565460205078</v>
       </c>
       <c r="C63">
-        <v>20.03134727478028</v>
+        <v>29.02665710449219</v>
       </c>
       <c r="D63">
-        <v>19.80363464355469</v>
+        <v>28.52600479125977</v>
       </c>
       <c r="E63">
-        <v>19.88956832885743</v>
+        <v>28.59975624084473</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>20.24834611257646</v>
+        <v>27.89915888326059</v>
       </c>
       <c r="H63">
-        <v>20.0256383895874</v>
+        <v>28.96965799331665</v>
       </c>
       <c r="I63">
-        <v>20.61020844777425</v>
+        <v>26.18675397237142</v>
       </c>
       <c r="L63">
-        <v>39.46586686931536</v>
+        <v>52.15344797971781</v>
       </c>
       <c r="M63">
-        <v>37.20943255967884</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+        <v>58.79257809428264</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B64">
-        <v>19.88969421386719</v>
+        <v>28.59109115600586</v>
       </c>
       <c r="C64">
-        <v>20.03146743774414</v>
+        <v>28.59184074401855</v>
       </c>
       <c r="D64">
-        <v>19.88969421386719</v>
+        <v>27.91242408752441</v>
       </c>
       <c r="E64">
-        <v>19.96711540222168</v>
+        <v>28.05859565734864</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>20.22277968436238</v>
+        <v>27.91365313545041</v>
       </c>
       <c r="H64">
-        <v>20.02250022888184</v>
+        <v>29.27854509353638</v>
       </c>
       <c r="I64">
-        <v>20.51645444234212</v>
+        <v>26.44762331644694</v>
       </c>
       <c r="L64">
-        <v>43.40204848586752</v>
+        <v>46.82042179170639</v>
       </c>
       <c r="M64">
-        <v>39.43164716741936</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
+        <v>55.13944107036093</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B65">
-        <v>19.9686450958252</v>
+        <v>28.05521965026855</v>
       </c>
       <c r="C65">
-        <v>20.01928329467773</v>
+        <v>28.13721084594727</v>
       </c>
       <c r="D65">
-        <v>19.69321632385254</v>
+        <v>27.41693687438965</v>
       </c>
       <c r="E65">
-        <v>19.74596214294434</v>
+        <v>27.90030288696289</v>
       </c>
       <c r="F65">
-        <v>256144</v>
+        <v>8025216</v>
       </c>
       <c r="G65">
-        <v>20.17943263514256</v>
+        <v>27.912439476497</v>
       </c>
       <c r="H65">
-        <v>20.0012243270874</v>
+        <v>29.36405696868896</v>
       </c>
       <c r="I65">
-        <v>20.41883405049642</v>
+        <v>26.70232308705648</v>
       </c>
       <c r="L65">
-        <v>35.9104270231521</v>
+        <v>45.29622804668279</v>
       </c>
       <c r="M65">
-        <v>35.56586336964201</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15">
+        <v>54.08090176397399</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B66">
-        <v>19.74405670166016</v>
+        <v>27.89802932739257</v>
       </c>
       <c r="C66">
-        <v>19.88197326660156</v>
+        <v>28.21213912963867</v>
       </c>
       <c r="D66">
-        <v>19.64209747314453</v>
+        <v>27.89802932739257</v>
       </c>
       <c r="E66">
-        <v>19.68161010742188</v>
+        <v>28.08979415893555</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>20.13417604171341</v>
+        <v>27.92856262944596</v>
       </c>
       <c r="H66">
-        <v>19.98289709091187</v>
+        <v>29.35346221923828</v>
       </c>
       <c r="I66">
-        <v>20.33332176208496</v>
+        <v>26.97184944152832</v>
       </c>
       <c r="L66">
-        <v>33.9898308147871</v>
+        <v>47.59379521301497</v>
       </c>
       <c r="M66">
-        <v>34.50578450475494</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
+        <v>55.18990623416602</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B67">
-        <v>19.68159675598145</v>
+        <v>28.08732795715332</v>
       </c>
       <c r="C67">
-        <v>19.78349685668945</v>
+        <v>28.12299919128418</v>
       </c>
       <c r="D67">
-        <v>19.46373558044434</v>
+        <v>27.6909408569336</v>
       </c>
       <c r="E67">
-        <v>19.77266120910645</v>
+        <v>27.71062469482422</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67">
-        <v>20.10131105693095</v>
+        <v>27.90875008993489</v>
       </c>
       <c r="H67">
-        <v>19.97044286727905</v>
+        <v>29.3273606300354</v>
       </c>
       <c r="I67">
-        <v>20.25456320444743</v>
+        <v>27.23384215037028</v>
       </c>
       <c r="L67">
-        <v>39.16851420750977</v>
+        <v>43.48264311437667</v>
       </c>
       <c r="M67">
-        <v>37.35107142816344</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
+        <v>52.45970524798738</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B68">
-        <v>19.77228736877441</v>
+        <v>27.70886421203613</v>
       </c>
       <c r="C68">
-        <v>19.7855339050293</v>
+        <v>27.70886421203613</v>
       </c>
       <c r="D68">
-        <v>19.09420394897461</v>
+        <v>26.74786376953125</v>
       </c>
       <c r="E68">
-        <v>19.23061561584473</v>
+        <v>26.77745246887207</v>
       </c>
       <c r="F68">
-        <v>19277896</v>
+        <v>29317248</v>
       </c>
       <c r="G68">
-        <v>20.02215692592312</v>
+        <v>27.80590485165645</v>
       </c>
       <c r="H68">
-        <v>19.91211767196655</v>
+        <v>29.08680067062378</v>
       </c>
       <c r="I68">
-        <v>20.16220995585124</v>
+        <v>27.45935414632162</v>
       </c>
       <c r="L68">
-        <v>25.67709701370558</v>
+        <v>35.09033073952709</v>
       </c>
       <c r="M68">
-        <v>29.21427379381163</v>
-      </c>
-      <c r="N68" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15">
+        <v>46.37880783336505</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B69">
-        <v>19.23788642883301</v>
+        <v>26.78525161743164</v>
       </c>
       <c r="C69">
-        <v>19.33500099182129</v>
+        <v>27.06146430969238</v>
       </c>
       <c r="D69">
-        <v>18.50458145141602</v>
+        <v>26.26240348815918</v>
       </c>
       <c r="E69">
-        <v>18.81915473937988</v>
+        <v>26.44051933288575</v>
       </c>
       <c r="F69">
-        <v>47099368</v>
+        <v>61824640</v>
       </c>
       <c r="G69">
-        <v>19.91279309078282</v>
+        <v>27.68177889540457</v>
       </c>
       <c r="H69">
-        <v>19.82914505004883</v>
+        <v>28.88515758514404</v>
       </c>
       <c r="I69">
-        <v>20.05287621815999</v>
+        <v>27.63457495371501</v>
       </c>
       <c r="L69">
-        <v>19.84092959425776</v>
+        <v>32.53933996969879</v>
       </c>
       <c r="M69">
-        <v>24.79809901810868</v>
-      </c>
-      <c r="N69" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15">
+        <v>44.3785695575117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B70">
-        <v>18.81961822509766</v>
+        <v>26.45253753662109</v>
       </c>
       <c r="C70">
-        <v>19.40555953979492</v>
+        <v>27.1735668182373</v>
       </c>
       <c r="D70">
-        <v>18.7829647064209</v>
+        <v>26.45253753662109</v>
       </c>
       <c r="E70">
-        <v>19.27889442443848</v>
+        <v>27.00261688232422</v>
       </c>
       <c r="F70">
-        <v>19076544</v>
+        <v>6929408</v>
       </c>
       <c r="G70">
-        <v>19.85516593929697</v>
+        <v>27.62003689421544</v>
       </c>
       <c r="H70">
-        <v>19.7679916381836</v>
+        <v>28.78664388656616</v>
       </c>
       <c r="I70">
-        <v>19.9563871383667</v>
+        <v>27.83385620117188</v>
       </c>
       <c r="L70">
-        <v>37.65360443084806</v>
+        <v>40.63861162406093</v>
       </c>
       <c r="M70">
-        <v>36.37172486903852</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
+        <v>48.37844003358803</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B71">
-        <v>19.27830696105957</v>
+        <v>26.99543380737305</v>
       </c>
       <c r="C71">
-        <v>19.39143562316895</v>
+        <v>27.17214012145996</v>
       </c>
       <c r="D71">
-        <v>19.04071044921875</v>
+        <v>26.65813446044922</v>
       </c>
       <c r="E71">
-        <v>19.39143562316895</v>
+        <v>26.78419876098633</v>
       </c>
       <c r="F71">
-        <v>9589760</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>19.81300863783079</v>
+        <v>27.54405160937643</v>
       </c>
       <c r="H71">
-        <v>19.73759803771973</v>
+        <v>28.65069713592529</v>
       </c>
       <c r="I71">
-        <v>19.88956769307454</v>
+        <v>28.03052266438802</v>
       </c>
       <c r="L71">
-        <v>41.2489775124262</v>
+        <v>38.61210354386946</v>
       </c>
       <c r="M71">
-        <v>38.85258866638885</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15">
+        <v>46.96511887958812</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B72">
-        <v>19.39289093017578</v>
+        <v>26.78345108032227</v>
       </c>
       <c r="C72">
-        <v>19.68840599060058</v>
+        <v>27.75761413574219</v>
       </c>
       <c r="D72">
-        <v>19.39289093017578</v>
+        <v>26.69743537902832</v>
       </c>
       <c r="E72">
-        <v>19.64303016662598</v>
+        <v>27.69190788269043</v>
       </c>
       <c r="F72">
-        <v>14327296</v>
+        <v>86252096</v>
       </c>
       <c r="G72">
-        <v>19.79755604953944</v>
+        <v>27.55749308876861</v>
       </c>
       <c r="H72">
-        <v>19.71751108169556</v>
+        <v>28.52951536178589</v>
       </c>
       <c r="I72">
-        <v>19.86687482198079</v>
+        <v>28.24472821553548</v>
       </c>
       <c r="L72">
-        <v>48.69066161183193</v>
+        <v>50.21829649054261</v>
       </c>
       <c r="M72">
-        <v>44.09993190141305</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
+        <v>53.09748212973938</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B73">
-        <v>19.64156532287598</v>
+        <v>27.6840763092041</v>
       </c>
       <c r="C73">
-        <v>20.31919860839844</v>
+        <v>27.6840763092041</v>
       </c>
       <c r="D73">
-        <v>19.58391571044922</v>
+        <v>26.16553115844727</v>
       </c>
       <c r="E73">
-        <v>20.28878021240234</v>
+        <v>26.22555541992188</v>
       </c>
       <c r="F73">
-        <v>25397072</v>
+        <v>41590464</v>
       </c>
       <c r="G73">
-        <v>19.84221279161789</v>
+        <v>27.43640784614618</v>
       </c>
       <c r="H73">
-        <v>19.73706169128418</v>
+        <v>28.36315298080444</v>
       </c>
       <c r="I73">
-        <v>19.87773424784342</v>
+        <v>28.40249093373616</v>
       </c>
       <c r="L73">
-        <v>62.43108705451701</v>
+        <v>37.3759700965605</v>
       </c>
       <c r="M73">
-        <v>54.81716716465012</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
+        <v>44.20515302593291</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B74">
-        <v>20.29229164123535</v>
+        <v>26.22818756103516</v>
       </c>
       <c r="C74">
-        <v>20.41884422302246</v>
+        <v>27.19027519226075</v>
       </c>
       <c r="D74">
-        <v>20.10929870605469</v>
+        <v>26.13980293273925</v>
       </c>
       <c r="E74">
-        <v>20.33224487304688</v>
+        <v>27.03674507141113</v>
       </c>
       <c r="F74">
-        <v>7896592</v>
+        <v>1538112</v>
       </c>
       <c r="G74">
-        <v>19.88676116265689</v>
+        <v>27.40007486662481</v>
       </c>
       <c r="H74">
-        <v>19.76884832382202</v>
+        <v>28.17696475982666</v>
       </c>
       <c r="I74">
-        <v>19.88781312306722</v>
+        <v>28.57435398101807</v>
       </c>
       <c r="L74">
-        <v>63.17777335281394</v>
+        <v>45.97437816972442</v>
       </c>
       <c r="M74">
-        <v>55.43647488771101</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15">
+        <v>49.26691357098213</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B75">
-        <v>20.33490371704102</v>
+        <v>27.03674507141113</v>
       </c>
       <c r="C75">
-        <v>20.49612617492676</v>
+        <v>27.12687110900879</v>
       </c>
       <c r="D75">
-        <v>20.02556037902832</v>
+        <v>26.49963188171387</v>
       </c>
       <c r="E75">
-        <v>20.23251533508301</v>
+        <v>26.7573471069336</v>
       </c>
       <c r="F75">
-        <v>5035136</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>19.91819336015017</v>
+        <v>27.34164507028925</v>
       </c>
       <c r="H75">
-        <v>19.78743305206299</v>
+        <v>27.99346971511841</v>
       </c>
       <c r="I75">
-        <v>19.88984762827555</v>
+        <v>28.59326337178548</v>
       </c>
       <c r="L75">
-        <v>60.09468714804733</v>
+        <v>43.65199184680851</v>
       </c>
       <c r="M75">
-        <v>53.62039379975359</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15">
+        <v>47.66302344831961</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B76">
-        <v>20.2329158782959</v>
+        <v>26.74209976196289</v>
       </c>
       <c r="C76">
-        <v>20.29384994506836</v>
+        <v>26.76173973083496</v>
       </c>
       <c r="D76">
-        <v>20.12353897094727</v>
+        <v>26.22749900817871</v>
       </c>
       <c r="E76">
-        <v>20.25930976867676</v>
+        <v>26.76173973083496</v>
       </c>
       <c r="F76">
-        <v>1674784</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>19.9492039427435</v>
+        <v>27.28892640306613</v>
       </c>
       <c r="H76">
-        <v>19.79428453445434</v>
+        <v>27.87216062545776</v>
       </c>
       <c r="I76">
-        <v>19.89688612620036</v>
+        <v>28.54193172454834</v>
       </c>
       <c r="L76">
-        <v>60.67473826934404</v>
+        <v>43.70229122617706</v>
       </c>
       <c r="M76">
-        <v>54.05588062258053</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
+        <v>47.69185539980822</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B77">
-        <v>20.2602424621582</v>
+        <v>26.76572799682617</v>
       </c>
       <c r="C77">
-        <v>20.26872253417969</v>
+        <v>26.81801223754883</v>
       </c>
       <c r="D77">
-        <v>19.81985473632812</v>
+        <v>26.3147029876709</v>
       </c>
       <c r="E77">
-        <v>20.00400352478028</v>
+        <v>26.37177085876465</v>
       </c>
       <c r="F77">
-        <v>3655600</v>
+        <v>4301696</v>
       </c>
       <c r="G77">
-        <v>19.95418572292866</v>
+        <v>27.20554862631145</v>
       </c>
       <c r="H77">
-        <v>19.7908842086792</v>
+        <v>27.73937110900879</v>
       </c>
       <c r="I77">
-        <v>19.89629472096761</v>
+        <v>28.47990220387777</v>
       </c>
       <c r="L77">
-        <v>52.4952695070745</v>
+        <v>40.12497541977049</v>
       </c>
       <c r="M77">
-        <v>49.3053357884705</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15">
+        <v>45.30564710277491</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B78">
-        <v>20.01189422607422</v>
+        <v>26.3671932220459</v>
       </c>
       <c r="C78">
-        <v>20.08512687683105</v>
+        <v>26.67975807189941</v>
       </c>
       <c r="D78">
-        <v>19.62124824523925</v>
+        <v>26.27531623840332</v>
       </c>
       <c r="E78">
-        <v>19.85084342956543</v>
+        <v>26.33325386047364</v>
       </c>
       <c r="F78">
-        <v>14182896</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>19.94479096898654</v>
+        <v>27.12624910214437</v>
       </c>
       <c r="H78">
-        <v>19.79625520706177</v>
+        <v>27.57945995330811</v>
       </c>
       <c r="I78">
-        <v>19.8780855178833</v>
+        <v>28.3047222773234</v>
       </c>
       <c r="L78">
-        <v>48.11746245493528</v>
+        <v>39.76330700268394</v>
       </c>
       <c r="M78">
-        <v>46.65634722363318</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15">
+        <v>45.06580883523916</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B79">
-        <v>19.85239791870117</v>
+        <v>26.33723640441895</v>
       </c>
       <c r="C79">
-        <v>20.4890365600586</v>
+        <v>27.64204978942871</v>
       </c>
       <c r="D79">
-        <v>19.85239791870117</v>
+        <v>26.20258903503418</v>
       </c>
       <c r="E79">
-        <v>20.01209259033203</v>
+        <v>26.93079948425293</v>
       </c>
       <c r="F79">
-        <v>27937264</v>
+        <v>100866976</v>
       </c>
       <c r="G79">
-        <v>19.95090929819977</v>
+        <v>27.10848095506334</v>
       </c>
       <c r="H79">
-        <v>19.80822601318359</v>
+        <v>27.43315887451172</v>
       </c>
       <c r="I79">
-        <v>19.86253503163656</v>
+        <v>28.18663622538249</v>
       </c>
       <c r="L79">
-        <v>52.78141158043131</v>
+        <v>47.95129003810605</v>
       </c>
       <c r="M79">
-        <v>49.71919161406416</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15">
+        <v>49.52962208006167</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B80">
-        <v>20.01319885253906</v>
+        <v>26.92935371398925</v>
       </c>
       <c r="C80">
-        <v>21.18389511108398</v>
+        <v>27.00571060180664</v>
       </c>
       <c r="D80">
-        <v>19.79098510742188</v>
+        <v>26.64629936218262</v>
       </c>
       <c r="E80">
-        <v>21.18389511108398</v>
+        <v>26.93683242797852</v>
       </c>
       <c r="F80">
-        <v>134035792</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>20.06299891755288</v>
+        <v>27.09287654351017</v>
       </c>
       <c r="H80">
-        <v>19.86975898742676</v>
+        <v>27.32016534805298</v>
       </c>
       <c r="I80">
-        <v>19.88526611328125</v>
+        <v>28.11876761118571</v>
       </c>
       <c r="L80">
-        <v>72.78347384959802</v>
+        <v>48.03152552790915</v>
       </c>
       <c r="M80">
-        <v>65.30800615954273</v>
-      </c>
-      <c r="O80" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15">
+        <v>49.5741732585664</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B81">
-        <v>21.18901062011719</v>
+        <v>26.94070053100586</v>
       </c>
       <c r="C81">
-        <v>21.80427360534668</v>
+        <v>27.69128036499023</v>
       </c>
       <c r="D81">
-        <v>20.79808807373047</v>
+        <v>26.94070053100586</v>
       </c>
       <c r="E81">
-        <v>21.02417945861816</v>
+        <v>27.32423782348633</v>
       </c>
       <c r="F81">
-        <v>97338592</v>
+        <v>15192224</v>
       </c>
       <c r="G81">
-        <v>20.15037896674063</v>
+        <v>27.11390938714436</v>
       </c>
       <c r="H81">
-        <v>19.92452983856201</v>
+        <v>27.23581886291504</v>
       </c>
       <c r="I81">
-        <v>19.91942850748698</v>
+        <v>28.04613774617513</v>
       </c>
       <c r="L81">
-        <v>68.34422805319223</v>
+        <v>53.23902256920113</v>
       </c>
       <c r="M81">
-        <v>62.46532858586709</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15">
+        <v>52.47527731009436</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B82">
-        <v>21.02465057373047</v>
+        <v>27.31387138366699</v>
       </c>
       <c r="C82">
-        <v>21.20214653015137</v>
+        <v>27.38209342956543</v>
       </c>
       <c r="D82">
-        <v>20.88420486450196</v>
+        <v>27.02908325195312</v>
       </c>
       <c r="E82">
-        <v>20.88420486450196</v>
+        <v>27.07116317749023</v>
       </c>
       <c r="F82">
-        <v>16812032</v>
+        <v>2375680</v>
       </c>
       <c r="G82">
-        <v>20.21709041199166</v>
+        <v>27.1100233680849</v>
       </c>
       <c r="H82">
-        <v>19.97460584640503</v>
+        <v>27.14026069641113</v>
       </c>
       <c r="I82">
-        <v>19.94740969340006</v>
+        <v>27.94465840657552</v>
       </c>
       <c r="L82">
-        <v>64.46744810272322</v>
+        <v>49.58732157438195</v>
       </c>
       <c r="M82">
-        <v>60.00041415928263</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15">
+        <v>50.4340029786073</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B83">
-        <v>20.88647651672364</v>
+        <v>27.07254981994629</v>
       </c>
       <c r="C83">
-        <v>21.52545547485352</v>
+        <v>27.20614433288575</v>
       </c>
       <c r="D83">
-        <v>20.7333869934082</v>
+        <v>26.56020927429199</v>
       </c>
       <c r="E83">
-        <v>21.2657413482666</v>
+        <v>26.56020927429199</v>
       </c>
       <c r="F83">
-        <v>75764704</v>
+        <v>5860896</v>
       </c>
       <c r="G83">
-        <v>20.31242231528938</v>
+        <v>27.06004026864917</v>
       </c>
       <c r="H83">
-        <v>20.04341449737549</v>
+        <v>27.0382833480835</v>
       </c>
       <c r="I83">
-        <v>19.99300880432129</v>
+        <v>27.84490528106689</v>
       </c>
       <c r="L83">
-        <v>69.73232012401488</v>
+        <v>42.90325210288511</v>
       </c>
       <c r="M83">
-        <v>64.15273054890669</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15">
+        <v>46.50097982911434</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B84">
-        <v>21.27172088623047</v>
+        <v>26.55414772033692</v>
       </c>
       <c r="C84">
-        <v>21.50660896301269</v>
+        <v>26.70616912841797</v>
       </c>
       <c r="D84">
-        <v>20.49376487731934</v>
+        <v>26.42404365539551</v>
       </c>
       <c r="E84">
-        <v>21.49267387390137</v>
+        <v>26.52779960632324</v>
       </c>
       <c r="F84">
-        <v>69762880</v>
+        <v>4663520</v>
       </c>
       <c r="G84">
-        <v>20.41971791152683</v>
+        <v>27.01165475389227</v>
       </c>
       <c r="H84">
-        <v>20.11969242095947</v>
+        <v>26.96174354553223</v>
       </c>
       <c r="I84">
-        <v>20.052880859375</v>
+        <v>27.70381495157877</v>
       </c>
       <c r="L84">
-        <v>72.4625449830519</v>
+        <v>42.49451080326316</v>
       </c>
       <c r="M84">
-        <v>66.38773348720645</v>
-      </c>
-      <c r="O84" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15">
+        <v>46.25458285193135</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B85">
-        <v>21.48541831970215</v>
+        <v>26.53280258178711</v>
       </c>
       <c r="C85">
-        <v>21.89047050476075</v>
+        <v>26.67484855651855</v>
       </c>
       <c r="D85">
-        <v>21.08969497680664</v>
+        <v>26.20612144470215</v>
       </c>
       <c r="E85">
-        <v>21.8808536529541</v>
+        <v>26.26799392700196</v>
       </c>
       <c r="F85">
-        <v>29550912</v>
+        <v>0</v>
       </c>
       <c r="G85">
-        <v>20.55254843347477</v>
+        <v>26.94404922417497</v>
       </c>
       <c r="H85">
-        <v>20.22643699645996</v>
+        <v>26.88012809753418</v>
       </c>
       <c r="I85">
-        <v>20.12021528879801</v>
+        <v>27.56517314910889</v>
       </c>
       <c r="L85">
-        <v>76.53557719316073</v>
+        <v>39.13233333401391</v>
       </c>
       <c r="M85">
-        <v>69.8504983451365</v>
-      </c>
-      <c r="O85" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
+        <v>44.23127720501845</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B86">
-        <v>21.88669395446777</v>
+        <v>26.30895614624023</v>
       </c>
       <c r="C86">
-        <v>26.30525207519531</v>
+        <v>26.32978820800781</v>
       </c>
       <c r="D86">
-        <v>21.42216873168945</v>
+        <v>25.75877952575684</v>
       </c>
       <c r="E86">
-        <v>26.19006538391113</v>
+        <v>25.99922752380371</v>
       </c>
       <c r="F86">
-        <v>436352384</v>
+        <v>17727520</v>
       </c>
       <c r="G86">
-        <v>21.06504997442352</v>
+        <v>26.85815634232304</v>
       </c>
       <c r="H86">
-        <v>20.55185976028442</v>
+        <v>26.77559976577759</v>
       </c>
       <c r="I86">
-        <v>20.32247479756673</v>
+        <v>27.45888334910075</v>
       </c>
       <c r="L86">
-        <v>91.7587426458996</v>
+        <v>35.83283557608871</v>
       </c>
       <c r="M86">
-        <v>86.48982565574865</v>
-      </c>
-      <c r="O86" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15">
+        <v>42.17594255310281</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B87">
-        <v>26.24595260620117</v>
+        <v>25.9980411529541</v>
       </c>
       <c r="C87">
-        <v>28.71554756164551</v>
+        <v>26.22321701049805</v>
       </c>
       <c r="D87">
-        <v>25.96695327758789</v>
+        <v>25.77684593200684</v>
       </c>
       <c r="E87">
-        <v>28.30168914794922</v>
+        <v>26.15595626831055</v>
       </c>
       <c r="F87">
-        <v>494961920</v>
+        <v>597920</v>
       </c>
       <c r="G87">
-        <v>21.72292626292586</v>
+        <v>26.79431997195827</v>
       </c>
       <c r="H87">
-        <v>20.97831115722656</v>
+        <v>26.6978663444519</v>
       </c>
       <c r="I87">
-        <v>20.59679743448893</v>
+        <v>27.36316318511963</v>
       </c>
       <c r="L87">
-        <v>93.92979272979144</v>
+        <v>39.19616394471937</v>
       </c>
       <c r="M87">
-        <v>89.53709748319658</v>
-      </c>
-      <c r="O87" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15">
+        <v>43.81550478736601</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B88">
-        <v>28.3165454864502</v>
+        <v>26.1623649597168</v>
       </c>
       <c r="C88">
-        <v>28.52576065063477</v>
+        <v>26.1623649597168</v>
       </c>
       <c r="D88">
-        <v>27.18609809875488</v>
+        <v>25.06513023376465</v>
       </c>
       <c r="E88">
-        <v>28.23265647888184</v>
+        <v>25.50807571411133</v>
       </c>
       <c r="F88">
-        <v>251659648</v>
+        <v>33665920</v>
       </c>
       <c r="G88">
-        <v>22.31471991892186</v>
+        <v>26.67738867579036</v>
       </c>
       <c r="H88">
-        <v>21.42841320037842</v>
+        <v>26.63439750671387</v>
       </c>
       <c r="I88">
-        <v>20.87977186838786</v>
+        <v>27.22904980977376</v>
       </c>
       <c r="L88">
-        <v>93.02846472201955</v>
+        <v>31.51435277352312</v>
       </c>
       <c r="M88">
-        <v>88.83168852903822</v>
-      </c>
-      <c r="O88" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15">
+        <v>38.90470283322716</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B89">
-        <v>28.23117065429688</v>
+        <v>25.50807571411133</v>
       </c>
       <c r="C89">
-        <v>31.99358940124512</v>
+        <v>25.67384147644043</v>
       </c>
       <c r="D89">
-        <v>27.77985382080078</v>
+        <v>25.32608604431152</v>
       </c>
       <c r="E89">
-        <v>31.58865165710449</v>
+        <v>25.59111404418945</v>
       </c>
       <c r="F89">
-        <v>554731136</v>
+        <v>2963808</v>
       </c>
       <c r="G89">
-        <v>23.157804622393</v>
+        <v>26.57863643655391</v>
       </c>
       <c r="H89">
-        <v>22.06688804626465</v>
+        <v>26.59192724227905</v>
       </c>
       <c r="I89">
-        <v>21.27363770802816</v>
+        <v>27.08685957590739</v>
       </c>
       <c r="L89">
-        <v>95.42791945284434</v>
+        <v>33.39649876074218</v>
       </c>
       <c r="M89">
-        <v>92.09304659187052</v>
-      </c>
-      <c r="O89" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
+        <v>39.83545400056867</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B90">
-        <v>31.54983139038086</v>
+        <v>25.59198379516602</v>
       </c>
       <c r="C90">
-        <v>31.54983139038086</v>
+        <v>25.7072696685791</v>
       </c>
       <c r="D90">
-        <v>29.86215782165528</v>
+        <v>25.13781547546387</v>
       </c>
       <c r="E90">
-        <v>30.47338104248047</v>
+        <v>25.19497299194336</v>
       </c>
       <c r="F90">
-        <v>558457344</v>
+        <v>12430240</v>
       </c>
       <c r="G90">
-        <v>23.82285702421913</v>
+        <v>26.45284885068023</v>
       </c>
       <c r="H90">
-        <v>22.62661237716675</v>
+        <v>26.50154504776001</v>
       </c>
       <c r="I90">
-        <v>21.62430922190348</v>
+        <v>26.95346857706706</v>
       </c>
       <c r="L90">
-        <v>84.54859386136933</v>
+        <v>29.1038276295269</v>
       </c>
       <c r="M90">
-        <v>83.37915651697483</v>
-      </c>
-      <c r="O90" t="s">
+        <v>36.94394218469593</v>
+      </c>
+      <c r="N90" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:14">
       <c r="A91" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B91">
-        <v>30.49880790710449</v>
+        <v>25.1972599029541</v>
       </c>
       <c r="C91">
-        <v>30.92106246948243</v>
+        <v>25.57065391540528</v>
       </c>
       <c r="D91">
-        <v>28.29460716247558</v>
+        <v>25.00210762023925</v>
       </c>
       <c r="E91">
-        <v>28.97289085388184</v>
+        <v>25.47467041015625</v>
       </c>
       <c r="F91">
-        <v>216492544</v>
+        <v>6912800</v>
       </c>
       <c r="G91">
-        <v>24.29104191782483</v>
+        <v>26.36392353790532</v>
       </c>
       <c r="H91">
-        <v>23.10568513870239</v>
+        <v>26.43606863021851</v>
       </c>
       <c r="I91">
-        <v>21.92578016916911</v>
+        <v>26.8355853398641</v>
       </c>
       <c r="L91">
-        <v>72.10618519128225</v>
+        <v>35.67163383469873</v>
       </c>
       <c r="M91">
-        <v>73.32644029973284</v>
-      </c>
-      <c r="O91" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
+        <v>40.2421171643734</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B92">
-        <v>28.98080444335937</v>
+        <v>25.47419929504395</v>
       </c>
       <c r="C92">
-        <v>29.78825378417969</v>
+        <v>25.47419929504395</v>
       </c>
       <c r="D92">
-        <v>28.66865348815918</v>
+        <v>24.29662132263184</v>
       </c>
       <c r="E92">
-        <v>29.50313377380371</v>
+        <v>24.29662132263184</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>21397600</v>
       </c>
       <c r="G92">
-        <v>24.76486845018655</v>
+        <v>26.17598697288046</v>
       </c>
       <c r="H92">
-        <v>23.59869031906128</v>
+        <v>26.26630430221558</v>
       </c>
       <c r="I92">
-        <v>22.24646180470785</v>
+        <v>26.67939516703288</v>
       </c>
       <c r="L92">
-        <v>73.64791173494338</v>
+        <v>24.78987093630591</v>
       </c>
       <c r="M92">
-        <v>74.49661358296662</v>
-      </c>
-      <c r="O92" t="s">
+        <v>32.52544949320958</v>
+      </c>
+      <c r="N92" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:14">
       <c r="A93" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B93">
-        <v>29.54214668273925</v>
+        <v>24.32803726196289</v>
       </c>
       <c r="C93">
-        <v>30.28153991699219</v>
+        <v>24.58295059204102</v>
       </c>
       <c r="D93">
-        <v>28.95808219909668</v>
+        <v>24.18792533874512</v>
       </c>
       <c r="E93">
-        <v>30.11554336547852</v>
+        <v>24.41126823425293</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>31602624</v>
       </c>
       <c r="G93">
-        <v>25.25129344248582</v>
+        <v>26.01555799664159</v>
       </c>
       <c r="H93">
-        <v>24.09002847671509</v>
+        <v>26.17558994293213</v>
       </c>
       <c r="I93">
-        <v>22.58732763926188</v>
+        <v>26.53977890014648</v>
       </c>
       <c r="L93">
-        <v>75.41359991250788</v>
+        <v>27.22059821247624</v>
       </c>
       <c r="M93">
-        <v>75.81622217271806</v>
-      </c>
-      <c r="O93" t="s">
+        <v>33.85477437704493</v>
+      </c>
+      <c r="N93" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:14">
       <c r="A94" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B94">
-        <v>30.07788467407227</v>
+        <v>24.41384887695312</v>
       </c>
       <c r="C94">
-        <v>30.09194183349609</v>
+        <v>24.51656532287598</v>
       </c>
       <c r="D94">
-        <v>29.20290756225586</v>
+        <v>23.40253448486328</v>
       </c>
       <c r="E94">
-        <v>29.55280303955078</v>
+        <v>23.76629066467285</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>25644832</v>
       </c>
       <c r="G94">
-        <v>25.64233976949173</v>
+        <v>25.8110791482808</v>
       </c>
       <c r="H94">
-        <v>24.55105638504029</v>
+        <v>26.01206722259521</v>
       </c>
       <c r="I94">
-        <v>22.90685056050619</v>
+        <v>26.39670206705729</v>
       </c>
       <c r="L94">
-        <v>70.52840799772274</v>
+        <v>22.59818970071786</v>
       </c>
       <c r="M94">
-        <v>72.12327205832223</v>
-      </c>
-      <c r="O94" t="s">
+        <v>30.24476534584623</v>
+      </c>
+      <c r="N94" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:14">
       <c r="A95" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B95">
-        <v>29.55157470703125</v>
+        <v>23.77007293701172</v>
       </c>
       <c r="C95">
-        <v>30.7605094909668</v>
+        <v>24.25247001647949</v>
       </c>
       <c r="D95">
-        <v>28.92297172546387</v>
+        <v>23.77007293701172</v>
       </c>
       <c r="E95">
-        <v>30.7605094909668</v>
+        <v>24.01260185241699</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>7059776</v>
       </c>
       <c r="G95">
-        <v>26.10762792598946</v>
+        <v>25.64758121229318</v>
       </c>
       <c r="H95">
-        <v>25.07745609283447</v>
+        <v>25.87482995986938</v>
       </c>
       <c r="I95">
-        <v>23.2740021387736</v>
+        <v>26.26711203257243</v>
       </c>
       <c r="L95">
-        <v>74.51437037635407</v>
+        <v>27.86117066035111</v>
       </c>
       <c r="M95">
-        <v>74.94399925528228</v>
-      </c>
-      <c r="O95" t="s">
+        <v>33.17531765632798</v>
+      </c>
+      <c r="N95" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:14">
       <c r="A96" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B96">
-        <v>30.73489379882812</v>
+        <v>24.01351356506348</v>
       </c>
       <c r="C96">
-        <v>32.36186218261719</v>
+        <v>24.27788543701172</v>
       </c>
       <c r="D96">
-        <v>30.3477725982666</v>
+        <v>23.8700122833252</v>
       </c>
       <c r="E96">
-        <v>30.42724800109864</v>
+        <v>24.18535423278809</v>
       </c>
       <c r="F96">
-        <v>62904192</v>
+        <v>1411744</v>
       </c>
       <c r="G96">
-        <v>26.50032066009029</v>
+        <v>25.51465148688362</v>
       </c>
       <c r="H96">
-        <v>25.58585300445557</v>
+        <v>25.74601068496704</v>
       </c>
       <c r="I96">
-        <v>23.63219006856282</v>
+        <v>26.13696403503418</v>
       </c>
       <c r="L96">
-        <v>71.51186382280908</v>
+        <v>31.5343797615678</v>
       </c>
       <c r="M96">
-        <v>72.75624765347182</v>
-      </c>
-      <c r="O96" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+        <v>35.23058000903649</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B97">
-        <v>30.43244934082031</v>
+        <v>24.18514251708984</v>
       </c>
       <c r="C97">
-        <v>30.65284729003906</v>
+        <v>24.30135154724121</v>
       </c>
       <c r="D97">
-        <v>28.65870857238769</v>
+        <v>23.75176429748535</v>
       </c>
       <c r="E97">
-        <v>29.18792152404785</v>
+        <v>23.84751892089844</v>
       </c>
       <c r="F97">
-        <v>39422976</v>
+        <v>9164864</v>
       </c>
       <c r="G97">
-        <v>26.74464801135916</v>
+        <v>25.36309398088497</v>
       </c>
       <c r="H97">
-        <v>26.04504890441894</v>
+        <v>25.61979808807373</v>
       </c>
       <c r="I97">
-        <v>23.94603207906087</v>
+        <v>26.00819384256999</v>
       </c>
       <c r="L97">
-        <v>61.19570561886822</v>
+        <v>28.35764966103863</v>
       </c>
       <c r="M97">
-        <v>65.14073600259744</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
+        <v>33.08739980938572</v>
+      </c>
+      <c r="N97" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B98">
-        <v>29.18203544616699</v>
+        <v>23.84483337402344</v>
       </c>
       <c r="C98">
-        <v>29.52428817749023</v>
+        <v>24.62863159179688</v>
       </c>
       <c r="D98">
-        <v>27.84499931335449</v>
+        <v>23.01864433288575</v>
       </c>
       <c r="E98">
-        <v>29.02756118774414</v>
+        <v>24.56432723999023</v>
       </c>
       <c r="F98">
-        <v>97454336</v>
+        <v>45755488</v>
       </c>
       <c r="G98">
-        <v>26.95218557284871</v>
+        <v>25.29047882262181</v>
       </c>
       <c r="H98">
-        <v>26.50388479232788</v>
+        <v>25.53135175704956</v>
       </c>
       <c r="I98">
-        <v>24.27259693145752</v>
+        <v>25.93442300160726</v>
       </c>
       <c r="L98">
-        <v>59.93707244110884</v>
+        <v>42.24543150488655</v>
       </c>
       <c r="M98">
-        <v>64.20427721536227</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
+        <v>41.25331621408755</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B99">
-        <v>29.0045166015625</v>
+        <v>24.56648635864257</v>
       </c>
       <c r="C99">
-        <v>29.75712585449219</v>
+        <v>25.42801666259766</v>
       </c>
       <c r="D99">
-        <v>27.97749328613281</v>
+        <v>24.56648635864257</v>
       </c>
       <c r="E99">
-        <v>29.5314769744873</v>
+        <v>25.33933067321777</v>
       </c>
       <c r="F99">
-        <v>62727168</v>
+        <v>23718688</v>
       </c>
       <c r="G99">
-        <v>27.1866666093613</v>
+        <v>25.29491989994872</v>
       </c>
       <c r="H99">
-        <v>26.97985401153564</v>
+        <v>25.4517783164978</v>
       </c>
       <c r="I99">
-        <v>24.62967433929443</v>
+        <v>25.89771671295166</v>
       </c>
       <c r="L99">
-        <v>62.65258784999772</v>
+        <v>53.26487333369851</v>
       </c>
       <c r="M99">
-        <v>65.86494333466509</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
+        <v>48.56240077125296</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B100">
-        <v>29.52875709533692</v>
+        <v>25.34114074707031</v>
       </c>
       <c r="C100">
-        <v>29.96939849853516</v>
+        <v>25.34114074707031</v>
       </c>
       <c r="D100">
-        <v>29.36998176574707</v>
+        <v>24.69518089294434</v>
       </c>
       <c r="E100">
-        <v>29.85682106018066</v>
+        <v>24.8128547668457</v>
       </c>
       <c r="F100">
-        <v>14823168</v>
+        <v>0</v>
       </c>
       <c r="G100">
-        <v>27.42940792307216</v>
+        <v>25.25109579693935</v>
       </c>
       <c r="H100">
-        <v>27.41350030899048</v>
+        <v>25.34557943344116</v>
       </c>
       <c r="I100">
-        <v>24.98227189381917</v>
+        <v>25.82472464243572</v>
       </c>
       <c r="L100">
-        <v>64.40499925355412</v>
+        <v>46.48647256108995</v>
       </c>
       <c r="M100">
-        <v>66.93162225978536</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
+        <v>44.51098860179917</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B101">
-        <v>29.85664176940918</v>
+        <v>24.81381225585937</v>
       </c>
       <c r="C101">
-        <v>29.88147735595703</v>
+        <v>25.07415580749512</v>
       </c>
       <c r="D101">
-        <v>28.8466625213623</v>
+        <v>24.70944976806641</v>
       </c>
       <c r="E101">
-        <v>29.19670295715332</v>
+        <v>24.8862361907959</v>
       </c>
       <c r="F101">
         <v>0</v>
       </c>
       <c r="G101">
-        <v>27.59007110798862</v>
+        <v>25.2179267418354</v>
       </c>
       <c r="H101">
-        <v>27.82212648391724</v>
+        <v>25.22367935180664</v>
       </c>
       <c r="I101">
-        <v>25.30911413828532</v>
+        <v>25.76145922342937</v>
       </c>
       <c r="L101">
-        <v>58.17428467506666</v>
+        <v>47.53343034703958</v>
       </c>
       <c r="M101">
-        <v>62.65360473363148</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13">
+        <v>45.1972677571082</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B102">
-        <v>29.20435905456543</v>
+        <v>24.88088417053223</v>
       </c>
       <c r="C102">
-        <v>29.31015014648437</v>
+        <v>24.97867774963379</v>
       </c>
       <c r="D102">
-        <v>28.84530448913575</v>
+        <v>24.48585319519043</v>
       </c>
       <c r="E102">
-        <v>29.01116752624512</v>
+        <v>24.73274803161621</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>11179328</v>
       </c>
       <c r="G102">
-        <v>27.71926169146649</v>
+        <v>25.17381958636093</v>
       </c>
       <c r="H102">
-        <v>28.22847461700439</v>
+        <v>25.10675859451294</v>
       </c>
       <c r="I102">
-        <v>25.62138538360596</v>
+        <v>25.66282056172689</v>
       </c>
       <c r="L102">
-        <v>56.44756735670591</v>
+        <v>45.44144338034052</v>
       </c>
       <c r="M102">
-        <v>61.4644856273347</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13">
+        <v>43.9722402549102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
       <c r="A103" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B103">
-        <v>29.01116752624512</v>
+        <v>24.73272323608398</v>
       </c>
       <c r="C103">
-        <v>29.16054153442383</v>
+        <v>24.83337783813477</v>
       </c>
       <c r="D103">
-        <v>28.5025463104248</v>
+        <v>24.26391410827637</v>
       </c>
       <c r="E103">
-        <v>28.98232650756836</v>
+        <v>24.26391410827637</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="G103">
-        <v>27.83408576565757</v>
+        <v>25.09110090653506</v>
       </c>
       <c r="H103">
-        <v>28.61430387496948</v>
+        <v>24.99194383621216</v>
       </c>
       <c r="I103">
-        <v>25.91117026011149</v>
+        <v>25.59743251800537</v>
       </c>
       <c r="L103">
-        <v>56.15607765221538</v>
+        <v>39.47185928653425</v>
       </c>
       <c r="M103">
-        <v>61.26981774489408</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13">
+        <v>40.37267526051279</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B104">
-        <v>28.97565460205078</v>
+        <v>24.26644325256348</v>
       </c>
       <c r="C104">
-        <v>29.02665710449219</v>
+        <v>24.32918357849121</v>
       </c>
       <c r="D104">
-        <v>28.52600479125977</v>
+        <v>24.19978713989257</v>
       </c>
       <c r="E104">
-        <v>28.59975624084473</v>
+        <v>24.30895042419434</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
       <c r="G104">
-        <v>27.90369217249276</v>
+        <v>25.01999631723136</v>
       </c>
       <c r="H104">
-        <v>28.96965799331665</v>
+        <v>24.88100137710571</v>
       </c>
       <c r="I104">
-        <v>26.18675397237142</v>
+        <v>25.50650602976481</v>
       </c>
       <c r="L104">
-        <v>52.13828198186837</v>
+        <v>40.31913242069107</v>
       </c>
       <c r="M104">
-        <v>58.61775067011408</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13">
+        <v>40.87338147504267</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
       <c r="A105" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B105">
-        <v>28.59109115600586</v>
+        <v>24.30984687805176</v>
       </c>
       <c r="C105">
-        <v>28.59184074401855</v>
+        <v>24.92027282714844</v>
       </c>
       <c r="D105">
-        <v>27.91242408752441</v>
+        <v>24.30984687805176</v>
       </c>
       <c r="E105">
-        <v>28.05859565734864</v>
+        <v>24.67563819885254</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>4673856</v>
       </c>
       <c r="G105">
-        <v>27.91777430747966</v>
+        <v>24.98869103374237</v>
       </c>
       <c r="H105">
-        <v>29.27854509353638</v>
+        <v>24.80138359069824</v>
       </c>
       <c r="I105">
-        <v>26.44762331644694</v>
+        <v>25.43711573282878</v>
       </c>
       <c r="L105">
-        <v>46.80878837733431</v>
+        <v>47.10169701277071</v>
       </c>
       <c r="M105">
-        <v>54.99169358999678</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13">
+        <v>44.92831969642539</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
       <c r="A106" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B106">
-        <v>28.05521965026855</v>
+        <v>24.68692207336425</v>
       </c>
       <c r="C106">
-        <v>28.13721084594727</v>
+        <v>24.93271255493164</v>
       </c>
       <c r="D106">
-        <v>27.41693687438965</v>
+        <v>24.58098220825196</v>
       </c>
       <c r="E106">
-        <v>27.90030288696289</v>
+        <v>24.84762191772461</v>
       </c>
       <c r="F106">
-        <v>8025216</v>
+        <v>0</v>
       </c>
       <c r="G106">
-        <v>27.91618599652359</v>
+        <v>24.97586656864985</v>
       </c>
       <c r="H106">
-        <v>29.36405696868896</v>
+        <v>24.74380331039429</v>
       </c>
       <c r="I106">
-        <v>26.70232308705648</v>
+        <v>25.3733118057251</v>
       </c>
       <c r="L106">
-        <v>45.28552133158858</v>
+        <v>50.09432135031234</v>
       </c>
       <c r="M106">
-        <v>53.94060123586873</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13">
+        <v>46.77212851379897</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
       <c r="A107" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B107">
-        <v>27.89802932739257</v>
+        <v>24.8450870513916</v>
       </c>
       <c r="C107">
-        <v>28.21213912963867</v>
+        <v>24.84783744812012</v>
       </c>
       <c r="D107">
-        <v>27.89802932739257</v>
+        <v>24.50566864013672</v>
       </c>
       <c r="E107">
-        <v>28.08979415893555</v>
+        <v>24.63825035095215</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>75424</v>
       </c>
       <c r="G107">
-        <v>27.93196855674286</v>
+        <v>24.94517418522278</v>
       </c>
       <c r="H107">
-        <v>29.35346221923828</v>
+        <v>24.66791801452637</v>
       </c>
       <c r="I107">
-        <v>26.97184944152832</v>
+        <v>25.31552778879802</v>
       </c>
       <c r="L107">
-        <v>47.58274648035253</v>
+        <v>46.49208367402404</v>
       </c>
       <c r="M107">
-        <v>55.04825281982491</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13">
+        <v>44.80544964827116</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
       <c r="A108" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B108">
-        <v>28.08732795715332</v>
+        <v>24.63788795471192</v>
       </c>
       <c r="C108">
-        <v>28.12299919128418</v>
+        <v>24.80973434448243</v>
       </c>
       <c r="D108">
-        <v>27.6909408569336</v>
+        <v>24.62451553344727</v>
       </c>
       <c r="E108">
-        <v>27.71062469482422</v>
+        <v>24.65912437438965</v>
       </c>
       <c r="F108">
         <v>0</v>
       </c>
       <c r="G108">
-        <v>27.91184638747752</v>
+        <v>24.91916965696522</v>
       </c>
       <c r="H108">
-        <v>29.3273606300354</v>
+        <v>24.62547044754028</v>
       </c>
       <c r="I108">
-        <v>27.23384215037028</v>
+        <v>25.25972347259522</v>
       </c>
       <c r="L108">
-        <v>43.4738425183639</v>
+        <v>46.92019251059322</v>
       </c>
       <c r="M108">
-        <v>52.33609444738307</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13">
+        <v>45.05351117317918</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
       <c r="A109" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B109">
-        <v>27.70886421203613</v>
+        <v>24.66136741638184</v>
       </c>
       <c r="C109">
-        <v>27.70886421203613</v>
+        <v>25.35055351257324</v>
       </c>
       <c r="D109">
-        <v>26.74786376953125</v>
+        <v>24.65982246398925</v>
       </c>
       <c r="E109">
-        <v>26.77745246887207</v>
+        <v>24.84912300109864</v>
       </c>
       <c r="F109">
-        <v>29317248</v>
+        <v>30750208</v>
       </c>
       <c r="G109">
-        <v>27.8087196676043</v>
+        <v>24.91280177915917</v>
       </c>
       <c r="H109">
-        <v>29.08680067062378</v>
+        <v>24.58837089538574</v>
       </c>
       <c r="I109">
-        <v>27.45935414632162</v>
+        <v>25.19033425649008</v>
       </c>
       <c r="L109">
-        <v>35.08536015696076</v>
+        <v>50.93961726161021</v>
       </c>
       <c r="M109">
-        <v>46.29126947553084</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13">
+        <v>47.37202069189524</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
       <c r="A110" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B110">
-        <v>26.78525161743164</v>
+        <v>24.84707069396973</v>
       </c>
       <c r="C110">
-        <v>27.06146430969238</v>
+        <v>25.0671615600586</v>
       </c>
       <c r="D110">
-        <v>26.26240348815918</v>
+        <v>24.68748474121094</v>
       </c>
       <c r="E110">
-        <v>26.44051933288575</v>
+        <v>24.99735260009766</v>
       </c>
       <c r="F110">
-        <v>61824640</v>
+        <v>3734768</v>
       </c>
       <c r="G110">
-        <v>27.68433781899352</v>
+        <v>24.92048821742631</v>
       </c>
       <c r="H110">
-        <v>28.88515758514404</v>
+        <v>24.57848987579346</v>
       </c>
       <c r="I110">
-        <v>27.63457495371501</v>
+        <v>25.12568492889405</v>
       </c>
       <c r="L110">
-        <v>32.53533158102189</v>
+        <v>53.99705216744291</v>
       </c>
       <c r="M110">
-        <v>44.30165481730694</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13">
+        <v>49.17389672005413</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
       <c r="A111" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B111">
-        <v>26.45253753662109</v>
+        <v>24.99948692321777</v>
       </c>
       <c r="C111">
-        <v>27.1735668182373</v>
+        <v>25.01261138916016</v>
       </c>
       <c r="D111">
-        <v>26.45253753662109</v>
+        <v>24.49637985229492</v>
       </c>
       <c r="E111">
-        <v>27.00261688232422</v>
+        <v>24.49637985229492</v>
       </c>
       <c r="F111">
-        <v>6929408</v>
+        <v>1725328</v>
       </c>
       <c r="G111">
-        <v>27.62236318838722</v>
+        <v>24.88193291150527</v>
       </c>
       <c r="H111">
-        <v>28.78664388656616</v>
+        <v>24.52957534790039</v>
       </c>
       <c r="I111">
-        <v>27.83385620117188</v>
+        <v>25.031422996521</v>
       </c>
       <c r="L111">
-        <v>40.63340547651012</v>
+        <v>43.65335870144247</v>
       </c>
       <c r="M111">
-        <v>48.29430202293166</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13">
+        <v>43.72507468699246</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
       <c r="A112" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B112">
-        <v>26.99543380737305</v>
+        <v>24.48846817016602</v>
       </c>
       <c r="C112">
-        <v>27.17214012145996</v>
+        <v>24.58972930908203</v>
       </c>
       <c r="D112">
-        <v>26.65813446044922</v>
+        <v>23.88496589660645</v>
       </c>
       <c r="E112">
-        <v>26.78419876098633</v>
+        <v>24.06995391845703</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>25033680</v>
       </c>
       <c r="G112">
-        <v>27.54616642225987</v>
+        <v>24.80811663940998</v>
       </c>
       <c r="H112">
-        <v>28.65069713592529</v>
+        <v>24.51824197769165</v>
       </c>
       <c r="I112">
-        <v>28.03052266438802</v>
+        <v>24.93138268788656</v>
       </c>
       <c r="L112">
-        <v>38.60755609036961</v>
+        <v>36.88692180761842</v>
       </c>
       <c r="M112">
-        <v>46.88780063388528</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13">
+        <v>39.69327351730275</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B113">
-        <v>26.78345108032227</v>
+        <v>24.07149124145508</v>
       </c>
       <c r="C113">
-        <v>27.75761413574219</v>
+        <v>24.23923110961914</v>
       </c>
       <c r="D113">
-        <v>26.69743537902832</v>
+        <v>23.87754821777344</v>
       </c>
       <c r="E113">
-        <v>27.69190788269043</v>
+        <v>24.07995796203613</v>
       </c>
       <c r="F113">
-        <v>86252096</v>
+        <v>19183680</v>
       </c>
       <c r="G113">
-        <v>27.55941564593537</v>
+        <v>24.74192039601236</v>
       </c>
       <c r="H113">
-        <v>28.52951536178589</v>
+        <v>24.50167646408081</v>
       </c>
       <c r="I113">
-        <v>28.24472821553548</v>
+        <v>24.8487076441447</v>
       </c>
       <c r="L113">
-        <v>50.21275486098337</v>
+        <v>37.14406389118513</v>
       </c>
       <c r="M113">
-        <v>53.01230724457069</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13">
+        <v>39.8334387770064</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B114">
-        <v>27.6840763092041</v>
+        <v>24.07952690124512</v>
       </c>
       <c r="C114">
-        <v>27.6840763092041</v>
+        <v>24.09162521362305</v>
       </c>
       <c r="D114">
-        <v>26.16553115844727</v>
+        <v>23.43203544616699</v>
       </c>
       <c r="E114">
-        <v>26.22555541992188</v>
+        <v>23.79950523376465</v>
       </c>
       <c r="F114">
-        <v>41590464</v>
+        <v>34462176</v>
       </c>
       <c r="G114">
-        <v>27.43815562538869</v>
+        <v>24.65624629035348</v>
       </c>
       <c r="H114">
-        <v>28.36315298080444</v>
+        <v>24.5033371925354</v>
       </c>
       <c r="I114">
-        <v>28.40249093373616</v>
+        <v>24.75776449839275</v>
       </c>
       <c r="L114">
-        <v>37.37337219523101</v>
+        <v>32.91465460011845</v>
       </c>
       <c r="M114">
-        <v>44.15446730942577</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13">
+        <v>37.22164450225005</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B115">
-        <v>26.22818756103516</v>
+        <v>23.78695297241211</v>
       </c>
       <c r="C115">
-        <v>27.19027519226075</v>
+        <v>24.14299583435058</v>
       </c>
       <c r="D115">
-        <v>26.13980293273925</v>
+        <v>23.33428001403809</v>
       </c>
       <c r="E115">
-        <v>27.03674507141113</v>
+        <v>23.67026710510254</v>
       </c>
       <c r="F115">
-        <v>1538112</v>
+        <v>17333088</v>
       </c>
       <c r="G115">
-        <v>27.40166375684527</v>
+        <v>24.56661181896703</v>
       </c>
       <c r="H115">
-        <v>28.17696475982666</v>
+        <v>24.48622045516968</v>
       </c>
       <c r="I115">
-        <v>28.57435398101807</v>
+        <v>24.67117360432943</v>
       </c>
       <c r="L115">
-        <v>45.97125506008073</v>
+        <v>31.07999797591669</v>
       </c>
       <c r="M115">
-        <v>49.21032951579925</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13">
+        <v>36.04865034244912</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B116">
-        <v>27.03674507141113</v>
+        <v>23.67889976501465</v>
       </c>
       <c r="C116">
-        <v>27.12687110900879</v>
+        <v>23.8977108001709</v>
       </c>
       <c r="D116">
-        <v>26.49963188171387</v>
+        <v>23.00566482543945</v>
       </c>
       <c r="E116">
-        <v>26.7573471069336</v>
+        <v>23.18869209289551</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>23683072</v>
       </c>
       <c r="G116">
-        <v>27.34308951594421</v>
+        <v>24.44134638932416</v>
       </c>
       <c r="H116">
-        <v>27.99346971511841</v>
+        <v>24.43638734817505</v>
       </c>
       <c r="I116">
-        <v>28.59326337178548</v>
+        <v>24.57748908996582</v>
       </c>
       <c r="L116">
-        <v>43.6492526424999</v>
+        <v>25.19324944769368</v>
       </c>
       <c r="M116">
-        <v>47.61149281316577</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13">
+        <v>32.00167159443755</v>
+      </c>
+      <c r="N116" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B117">
-        <v>26.74209976196289</v>
+        <v>23.19394302368164</v>
       </c>
       <c r="C117">
-        <v>26.76173973083496</v>
+        <v>23.66159629821777</v>
       </c>
       <c r="D117">
-        <v>26.22749900817871</v>
+        <v>22.82422256469727</v>
       </c>
       <c r="E117">
-        <v>26.76173973083496</v>
+        <v>22.86775970458984</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>18025408</v>
       </c>
       <c r="G117">
-        <v>27.29023953547973</v>
+        <v>24.29829305434831</v>
       </c>
       <c r="H117">
-        <v>27.87216062545776</v>
+        <v>24.38739938735962</v>
       </c>
       <c r="I117">
-        <v>28.54193172454834</v>
+        <v>24.4678825378418</v>
       </c>
       <c r="L117">
-        <v>43.69954957294054</v>
+        <v>22.06058642297915</v>
       </c>
       <c r="M117">
-        <v>47.6402953333989</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13">
+        <v>29.6155325455258</v>
+      </c>
+      <c r="N117" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B118">
-        <v>26.76572799682617</v>
+        <v>22.88327217102051</v>
       </c>
       <c r="C118">
-        <v>26.81801223754883</v>
+        <v>23.42413902282715</v>
       </c>
       <c r="D118">
-        <v>26.3147029876709</v>
+        <v>22.88327217102051</v>
       </c>
       <c r="E118">
-        <v>26.37177085876465</v>
+        <v>23.30249786376953</v>
       </c>
       <c r="F118">
-        <v>4301696</v>
+        <v>0</v>
       </c>
       <c r="G118">
-        <v>27.20674238305109</v>
+        <v>24.20776621884115</v>
       </c>
       <c r="H118">
-        <v>27.73937110900879</v>
+        <v>24.32430791854858</v>
       </c>
       <c r="I118">
-        <v>28.47990220387777</v>
+        <v>24.39436327616374</v>
       </c>
       <c r="L118">
-        <v>40.12277773411356</v>
+        <v>34.47685180709508</v>
       </c>
       <c r="M118">
-        <v>45.26120368810263</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13">
+        <v>36.52041170791053</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B119">
-        <v>26.3671932220459</v>
+        <v>23.29999351501465</v>
       </c>
       <c r="C119">
-        <v>26.67975807189941</v>
+        <v>23.78384017944336</v>
       </c>
       <c r="D119">
-        <v>26.27531623840332</v>
+        <v>23.09395408630371</v>
       </c>
       <c r="E119">
-        <v>26.33325386047364</v>
+        <v>23.10676383972168</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>8623104</v>
       </c>
       <c r="G119">
-        <v>27.12733433554405</v>
+        <v>24.10767509346665</v>
       </c>
       <c r="H119">
-        <v>27.57945995330811</v>
+        <v>24.21267957687378</v>
       </c>
       <c r="I119">
-        <v>28.3047222773234</v>
+        <v>24.31155160268148</v>
       </c>
       <c r="L119">
-        <v>39.76116114126969</v>
+        <v>31.90260005345885</v>
       </c>
       <c r="M119">
-        <v>45.02205433531677</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13">
+        <v>34.86213689776933</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B120">
-        <v>26.33723640441895</v>
+        <v>23.11221122741699</v>
       </c>
       <c r="C120">
-        <v>27.64204978942871</v>
+        <v>23.21736526489257</v>
       </c>
       <c r="D120">
-        <v>26.20258903503418</v>
+        <v>21.97757530212402</v>
       </c>
       <c r="E120">
-        <v>26.93079948425293</v>
+        <v>22.10464096069336</v>
       </c>
       <c r="F120">
-        <v>100866976</v>
+        <v>70642944</v>
       </c>
       <c r="G120">
-        <v>27.10946753088122</v>
+        <v>23.92558108139636</v>
       </c>
       <c r="H120">
-        <v>27.43315887451172</v>
+        <v>24.07726888656616</v>
       </c>
       <c r="I120">
-        <v>28.18663622538249</v>
+        <v>24.20854053497315</v>
       </c>
       <c r="L120">
-        <v>47.94880951378854</v>
+        <v>22.30855071826526</v>
       </c>
       <c r="M120">
-        <v>49.48165096617917</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13">
+        <v>27.88174088581005</v>
+      </c>
+      <c r="N120" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B121">
-        <v>26.92935371398925</v>
+        <v>22.10587310791016</v>
       </c>
       <c r="C121">
-        <v>27.00571060180664</v>
+        <v>22.61686134338379</v>
       </c>
       <c r="D121">
-        <v>26.64629936218262</v>
+        <v>21.82375717163086</v>
       </c>
       <c r="E121">
-        <v>26.93683242797852</v>
+        <v>22.52286148071289</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>18634912</v>
       </c>
       <c r="G121">
-        <v>27.09377343061734</v>
+        <v>23.79806111769786</v>
       </c>
       <c r="H121">
-        <v>27.32016534805298</v>
+        <v>23.95910015106201</v>
       </c>
       <c r="I121">
-        <v>28.11876761118571</v>
+        <v>24.1101469039917</v>
       </c>
       <c r="L121">
-        <v>48.02904269910565</v>
+        <v>31.92084207208816</v>
       </c>
       <c r="M121">
-        <v>49.52616697759946</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13">
+        <v>33.8358632037958</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B122">
-        <v>26.94070053100586</v>
+        <v>22.52351951599121</v>
       </c>
       <c r="C122">
-        <v>27.69128036499023</v>
+        <v>22.75123786926269</v>
       </c>
       <c r="D122">
-        <v>26.94070053100586</v>
+        <v>22.34157752990723</v>
       </c>
       <c r="E122">
-        <v>27.32423782348633</v>
+        <v>22.4057674407959</v>
       </c>
       <c r="F122">
-        <v>15192224</v>
+        <v>2860000</v>
       </c>
       <c r="G122">
-        <v>27.11472473905997</v>
+        <v>23.67148896525222</v>
       </c>
       <c r="H122">
-        <v>27.23581886291505</v>
+        <v>23.842751121521</v>
       </c>
       <c r="I122">
-        <v>28.04613774617513</v>
+        <v>24.04711844126384</v>
       </c>
       <c r="L122">
-        <v>53.23643064041933</v>
+        <v>30.72353151446557</v>
       </c>
       <c r="M122">
-        <v>52.42527537072437</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13">
+        <v>33.01402720951197</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B123">
-        <v>27.31387138366699</v>
+        <v>22.39608764648437</v>
       </c>
       <c r="C123">
-        <v>27.38209342956543</v>
+        <v>23.08416175842285</v>
       </c>
       <c r="D123">
-        <v>27.02908325195312</v>
+        <v>22.32744979858398</v>
       </c>
       <c r="E123">
-        <v>27.07116317749023</v>
+        <v>23.08416175842285</v>
       </c>
       <c r="F123">
-        <v>2375680</v>
+        <v>5043520</v>
       </c>
       <c r="G123">
-        <v>27.11076459709908</v>
+        <v>23.61809558281319</v>
       </c>
       <c r="H123">
-        <v>27.14026069641114</v>
+        <v>23.78376350402832</v>
       </c>
       <c r="I123">
-        <v>27.94465840657552</v>
+        <v>24.00288155873617</v>
       </c>
       <c r="L123">
-        <v>49.58514115993121</v>
+        <v>44.3327245028495</v>
       </c>
       <c r="M123">
-        <v>50.38915748005706</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13">
+        <v>41.82945029433172</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B124">
-        <v>27.07254981994629</v>
+        <v>23.08535766601562</v>
       </c>
       <c r="C124">
-        <v>27.20614433288575</v>
+        <v>23.13461494445801</v>
       </c>
       <c r="D124">
-        <v>26.56020927429199</v>
+        <v>22.68454170227051</v>
       </c>
       <c r="E124">
-        <v>26.56020927429199</v>
+        <v>22.69915580749512</v>
       </c>
       <c r="F124">
-        <v>5860896</v>
+        <v>8949856</v>
       </c>
       <c r="G124">
-        <v>27.06071411320753</v>
+        <v>23.53455560323882</v>
       </c>
       <c r="H124">
-        <v>27.0382833480835</v>
+        <v>23.70327377319336</v>
       </c>
       <c r="I124">
-        <v>27.8449052810669</v>
+        <v>23.96731039683025</v>
       </c>
       <c r="L124">
-        <v>42.90173575512436</v>
+        <v>39.39198191929283</v>
       </c>
       <c r="M124">
-        <v>46.46533760214113</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13">
+        <v>38.715483989967</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B125">
-        <v>26.55414772033692</v>
+        <v>22.69921684265137</v>
       </c>
       <c r="C125">
-        <v>26.70616912841797</v>
+        <v>23.13212585449219</v>
       </c>
       <c r="D125">
-        <v>26.42404365539551</v>
+        <v>22.69073295593262</v>
       </c>
       <c r="E125">
-        <v>26.52779960632324</v>
+        <v>22.96921539306641</v>
       </c>
       <c r="F125">
-        <v>4663520</v>
+        <v>1542912</v>
       </c>
       <c r="G125">
-        <v>27.01226733985441</v>
+        <v>23.48316103867769</v>
       </c>
       <c r="H125">
-        <v>26.96174354553223</v>
+        <v>23.61795263290405</v>
       </c>
       <c r="I125">
-        <v>27.70381495157877</v>
+        <v>23.93253084818523</v>
       </c>
       <c r="L125">
-        <v>42.49303132223871</v>
+        <v>44.29129865310284</v>
       </c>
       <c r="M125">
-        <v>46.21948511098834</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13">
+        <v>41.97834590724005</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B126">
-        <v>26.53280258178711</v>
+        <v>22.96899223327637</v>
       </c>
       <c r="C126">
-        <v>26.67484855651855</v>
+        <v>23.39556694030762</v>
       </c>
       <c r="D126">
-        <v>26.20612144470215</v>
+        <v>22.87363243103028</v>
       </c>
       <c r="E126">
-        <v>26.26799392700196</v>
+        <v>23.03195190429688</v>
       </c>
       <c r="F126">
         <v>0</v>
       </c>
       <c r="G126">
-        <v>26.94460612050419</v>
+        <v>23.44214202646125</v>
       </c>
       <c r="H126">
-        <v>26.88012809753418</v>
+        <v>23.52716913223266</v>
       </c>
       <c r="I126">
-        <v>27.56517314910889</v>
+        <v>23.89408410390218</v>
       </c>
       <c r="L126">
-        <v>39.13114074246754</v>
+        <v>45.4438556035639</v>
       </c>
       <c r="M126">
-        <v>44.20050745006859</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13">
+        <v>42.74101653063351</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B127">
-        <v>26.30895614624023</v>
+        <v>23.03424263000488</v>
       </c>
       <c r="C127">
-        <v>26.32978820800781</v>
+        <v>23.08283615112305</v>
       </c>
       <c r="D127">
-        <v>25.75877952575684</v>
+        <v>22.66835403442383</v>
       </c>
       <c r="E127">
-        <v>25.99922752380371</v>
+        <v>22.8378734588623</v>
       </c>
       <c r="F127">
-        <v>17727520</v>
+        <v>1305568</v>
       </c>
       <c r="G127">
-        <v>26.85866261171323</v>
+        <v>23.38720852031589</v>
       </c>
       <c r="H127">
-        <v>26.77559976577759</v>
+        <v>23.43715028762817</v>
       </c>
       <c r="I127">
-        <v>27.45888334910075</v>
+        <v>23.86042925516764</v>
       </c>
       <c r="L127">
-        <v>35.83189615458686</v>
+        <v>42.39154931002891</v>
       </c>
       <c r="M127">
-        <v>42.14930804368534</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13">
+        <v>40.94785388963563</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B128">
-        <v>25.9980411529541</v>
+        <v>22.83903884887696</v>
       </c>
       <c r="C128">
-        <v>26.22321701049805</v>
+        <v>23.01462936401367</v>
       </c>
       <c r="D128">
-        <v>25.77684593200684</v>
+        <v>22.59831237792969</v>
       </c>
       <c r="E128">
-        <v>26.15595626831055</v>
+        <v>22.73984909057617</v>
       </c>
       <c r="F128">
-        <v>597920</v>
+        <v>0</v>
       </c>
       <c r="G128">
-        <v>26.79478021685844</v>
+        <v>23.32835766306683</v>
       </c>
       <c r="H128">
-        <v>26.6978663444519</v>
+        <v>23.3411865234375</v>
       </c>
       <c r="I128">
-        <v>27.36316318511963</v>
+        <v>23.79961331685384</v>
       </c>
       <c r="L128">
-        <v>39.19512634273237</v>
+        <v>40.83316262436018</v>
       </c>
       <c r="M128">
-        <v>43.78752601207277</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14">
+        <v>40.03427051997866</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B129">
-        <v>26.1623649597168</v>
+        <v>22.74092102050781</v>
       </c>
       <c r="C129">
-        <v>26.1623649597168</v>
+        <v>23.03643608093262</v>
       </c>
       <c r="D129">
-        <v>25.06513023376465</v>
+        <v>22.56205368041992</v>
       </c>
       <c r="E129">
-        <v>25.50807571411133</v>
+        <v>22.98128509521484</v>
       </c>
       <c r="F129">
-        <v>33665920</v>
+        <v>0</v>
       </c>
       <c r="G129">
-        <v>26.67780708024507</v>
+        <v>23.29680561144392</v>
       </c>
       <c r="H129">
-        <v>26.63439750671387</v>
+        <v>23.24779462814331</v>
       </c>
       <c r="I129">
-        <v>27.22904980977377</v>
+        <v>23.72101179758708</v>
       </c>
       <c r="L129">
-        <v>31.51378923355484</v>
+        <v>46.30290917459987</v>
       </c>
       <c r="M129">
-        <v>38.88543808305849</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14">
+        <v>43.38472213365118</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B130">
-        <v>25.50807571411133</v>
+        <v>22.98319816589355</v>
       </c>
       <c r="C130">
-        <v>25.67384147644043</v>
+        <v>23.01634407043457</v>
       </c>
       <c r="D130">
-        <v>25.32608604431152</v>
+        <v>22.51918792724609</v>
       </c>
       <c r="E130">
-        <v>25.59111404418945</v>
+        <v>22.6273307800293</v>
       </c>
       <c r="F130">
-        <v>2963808</v>
+        <v>0</v>
       </c>
       <c r="G130">
-        <v>26.57901680424001</v>
+        <v>23.23594426313349</v>
       </c>
       <c r="H130">
-        <v>26.59192724227905</v>
+        <v>23.12929353713989</v>
       </c>
       <c r="I130">
-        <v>27.08685957590739</v>
+        <v>23.64816099802653</v>
       </c>
       <c r="L130">
-        <v>33.39588620141866</v>
+        <v>40.17707959108822</v>
       </c>
       <c r="M130">
-        <v>39.81544059023358</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14">
+        <v>39.8678773454019</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
       <c r="A131" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B131">
-        <v>25.59198379516602</v>
+        <v>22.62676620483398</v>
       </c>
       <c r="C131">
-        <v>25.7072696685791</v>
+        <v>22.73234939575196</v>
       </c>
       <c r="D131">
-        <v>25.13781547546387</v>
+        <v>22.34008598327637</v>
       </c>
       <c r="E131">
-        <v>25.19497299194336</v>
+        <v>22.73234939575196</v>
       </c>
       <c r="F131">
-        <v>12430240</v>
+        <v>3931344</v>
       </c>
       <c r="G131">
-        <v>26.45319463948577</v>
+        <v>23.19016291155335</v>
       </c>
       <c r="H131">
-        <v>26.50154504776001</v>
+        <v>23.04109201431275</v>
       </c>
       <c r="I131">
-        <v>26.95346857706706</v>
+        <v>23.57636477152506</v>
       </c>
       <c r="L131">
-        <v>29.10342201562882</v>
+        <v>42.70712797529526</v>
       </c>
       <c r="M131">
-        <v>36.92838184070489</v>
-      </c>
-      <c r="N131" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14">
+        <v>41.38604989016704</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B132">
-        <v>25.1972599029541</v>
+        <v>22.73390769958496</v>
       </c>
       <c r="C132">
-        <v>25.57065391540528</v>
+        <v>22.87007522583008</v>
       </c>
       <c r="D132">
-        <v>25.00210762023925</v>
+        <v>22.60478019714355</v>
       </c>
       <c r="E132">
-        <v>25.47467041015625</v>
+        <v>22.73483657836914</v>
       </c>
       <c r="F132">
-        <v>6912800</v>
+        <v>0</v>
       </c>
       <c r="G132">
-        <v>26.3642378913649</v>
+        <v>23.14876960853661</v>
       </c>
       <c r="H132">
-        <v>26.43606863021851</v>
+        <v>22.97433614730835</v>
       </c>
       <c r="I132">
-        <v>26.8355853398641</v>
+        <v>23.5097677230835</v>
       </c>
       <c r="L132">
-        <v>35.67108780369703</v>
+        <v>42.77161415061008</v>
       </c>
       <c r="M132">
-        <v>40.22412477317598</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14">
+        <v>41.42376905690374</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B133">
-        <v>25.47419929504395</v>
+        <v>22.73707008361816</v>
       </c>
       <c r="C133">
-        <v>25.47419929504395</v>
+        <v>22.97155380249023</v>
       </c>
       <c r="D133">
-        <v>24.29662132263184</v>
+        <v>22.24820518493652</v>
       </c>
       <c r="E133">
-        <v>24.29662132263184</v>
+        <v>22.3354320526123</v>
       </c>
       <c r="F133">
-        <v>21397600</v>
+        <v>4615152</v>
       </c>
       <c r="G133">
-        <v>26.17627274875281</v>
+        <v>23.07482983072531</v>
       </c>
       <c r="H133">
-        <v>26.26630430221558</v>
+        <v>22.88710985183716</v>
       </c>
       <c r="I133">
-        <v>26.67939516703288</v>
+        <v>23.44548498789469</v>
       </c>
       <c r="L133">
-        <v>24.78969641456553</v>
+        <v>35.54406642206689</v>
       </c>
       <c r="M133">
-        <v>32.51704231887849</v>
-      </c>
-      <c r="N133" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14">
+        <v>37.27543423210923</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B134">
-        <v>24.32803726196289</v>
+        <v>22.33202743530273</v>
       </c>
       <c r="C134">
-        <v>24.58295059204102</v>
+        <v>23.50152015686035</v>
       </c>
       <c r="D134">
-        <v>24.18792533874512</v>
+        <v>22.29487800598145</v>
       </c>
       <c r="E134">
-        <v>24.41126823425293</v>
+        <v>23.18088340759277</v>
       </c>
       <c r="F134">
-        <v>31602624</v>
+        <v>56967344</v>
       </c>
       <c r="G134">
-        <v>26.01581779288918</v>
+        <v>23.08447106498598</v>
       </c>
       <c r="H134">
-        <v>26.17558994293213</v>
+        <v>22.85617876052856</v>
       </c>
       <c r="I134">
-        <v>26.53977890014649</v>
+        <v>23.40788275400798</v>
       </c>
       <c r="L134">
-        <v>27.22038503101693</v>
+        <v>54.03900566721081</v>
       </c>
       <c r="M134">
-        <v>33.84549617833116</v>
-      </c>
-      <c r="N134" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14">
+        <v>48.93337125297642</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B135">
-        <v>24.41384887695312</v>
+        <v>23.17977142333984</v>
       </c>
       <c r="C135">
-        <v>24.51656532287598</v>
+        <v>23.33259201049805</v>
       </c>
       <c r="D135">
-        <v>23.40253448486328</v>
+        <v>22.9406623840332</v>
       </c>
       <c r="E135">
-        <v>23.76629066467285</v>
+        <v>23.23612594604492</v>
       </c>
       <c r="F135">
-        <v>25644832</v>
+        <v>5120288</v>
       </c>
       <c r="G135">
-        <v>25.8113153266877</v>
+        <v>23.09825787235497</v>
       </c>
       <c r="H135">
-        <v>26.01206722259521</v>
+        <v>22.83447170257568</v>
       </c>
       <c r="I135">
-        <v>26.39670206705729</v>
+        <v>23.35989901224772</v>
       </c>
       <c r="L135">
-        <v>22.59808265767661</v>
+        <v>54.9884114461419</v>
       </c>
       <c r="M135">
-        <v>30.23899073039411</v>
-      </c>
-      <c r="N135" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14">
+        <v>49.59261781051106</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B136">
-        <v>23.77007293701172</v>
+        <v>23.23965263366699</v>
       </c>
       <c r="C136">
-        <v>24.25247001647949</v>
+        <v>23.39934349060058</v>
       </c>
       <c r="D136">
-        <v>23.77007293701172</v>
+        <v>22.91721343994141</v>
       </c>
       <c r="E136">
-        <v>24.01260185241699</v>
+        <v>23.16608428955078</v>
       </c>
       <c r="F136">
-        <v>7059776</v>
+        <v>5142016</v>
       </c>
       <c r="G136">
-        <v>25.64779591993581</v>
+        <v>23.10442391028186</v>
       </c>
       <c r="H136">
-        <v>25.87482995986938</v>
+        <v>22.83334131240845</v>
       </c>
       <c r="I136">
-        <v>26.26711203257243</v>
+        <v>23.30384775797526</v>
       </c>
       <c r="L136">
-        <v>27.86099668007212</v>
+        <v>53.41458225670063</v>
       </c>
       <c r="M136">
-        <v>33.16782962161797</v>
-      </c>
-      <c r="N136" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
+        <v>48.73359130406748</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B137">
-        <v>24.01351356506348</v>
+        <v>23.16876602172852</v>
       </c>
       <c r="C137">
-        <v>24.27788543701172</v>
+        <v>23.3091869354248</v>
       </c>
       <c r="D137">
-        <v>23.8700122833252</v>
+        <v>23.00297355651855</v>
       </c>
       <c r="E137">
-        <v>24.18535423278809</v>
+        <v>23.02845573425293</v>
       </c>
       <c r="F137">
-        <v>1411744</v>
+        <v>1058592</v>
       </c>
       <c r="G137">
-        <v>25.51484667564965</v>
+        <v>23.09751771246105</v>
       </c>
       <c r="H137">
-        <v>25.74601068496704</v>
+        <v>22.8413761138916</v>
       </c>
       <c r="I137">
-        <v>26.13696403503418</v>
+        <v>23.25018793741862</v>
       </c>
       <c r="L137">
-        <v>31.53416547990459</v>
+        <v>50.2361880217691</v>
       </c>
       <c r="M137">
-        <v>35.2219925992783</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14">
+        <v>47.01045048755844</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B138">
-        <v>24.18514251708984</v>
+        <v>23.03101348876953</v>
       </c>
       <c r="C138">
-        <v>24.30135154724121</v>
+        <v>24.05808258056641</v>
       </c>
       <c r="D138">
-        <v>23.75176429748535</v>
+        <v>23.02670669555664</v>
       </c>
       <c r="E138">
-        <v>23.84751892089844</v>
+        <v>23.9850902557373</v>
       </c>
       <c r="F138">
-        <v>9164864</v>
+        <v>44478400</v>
       </c>
       <c r="G138">
-        <v>25.36327142521773</v>
+        <v>23.17820612548617</v>
       </c>
       <c r="H138">
-        <v>25.61979808807373</v>
+        <v>22.87550573348999</v>
       </c>
       <c r="I138">
-        <v>26.00819384256999</v>
+        <v>23.22772013346354</v>
       </c>
       <c r="L138">
-        <v>28.35749519816628</v>
+        <v>66.03860381088722</v>
       </c>
       <c r="M138">
-        <v>33.08063659357031</v>
-      </c>
-      <c r="N138" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14">
+        <v>58.10029585636949</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B139">
-        <v>23.84483337402344</v>
+        <v>23.98563766479492</v>
       </c>
       <c r="C139">
-        <v>24.62863159179688</v>
+        <v>24.00316047668457</v>
       </c>
       <c r="D139">
-        <v>23.01864433288575</v>
+        <v>23.57451820373535</v>
       </c>
       <c r="E139">
-        <v>24.56432723999023</v>
+        <v>23.7203197479248</v>
       </c>
       <c r="F139">
-        <v>45755488</v>
+        <v>10286752</v>
       </c>
       <c r="G139">
-        <v>25.29064013565159</v>
+        <v>23.2274891820715</v>
       </c>
       <c r="H139">
-        <v>25.53135175704956</v>
+        <v>22.90618352890015</v>
       </c>
       <c r="I139">
-        <v>25.93442300160726</v>
+        <v>23.19009335835775</v>
       </c>
       <c r="L139">
-        <v>42.24517224183359</v>
+        <v>60.09656386422381</v>
       </c>
       <c r="M139">
-        <v>41.24302178076572</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14">
+        <v>54.68882179787787</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B140">
-        <v>24.56648635864257</v>
+        <v>23.71942329406738</v>
       </c>
       <c r="C140">
-        <v>25.42801666259766</v>
+        <v>24.01779556274414</v>
       </c>
       <c r="D140">
-        <v>24.56648635864257</v>
+        <v>23.71240615844727</v>
       </c>
       <c r="E140">
-        <v>25.33933067321777</v>
+        <v>23.95666122436523</v>
       </c>
       <c r="F140">
-        <v>23718688</v>
+        <v>0</v>
       </c>
       <c r="G140">
-        <v>25.29506654815761</v>
+        <v>23.29377754955275</v>
       </c>
       <c r="H140">
-        <v>25.4517783164978</v>
+        <v>22.99878454208374</v>
       </c>
       <c r="I140">
-        <v>25.89771671295166</v>
+        <v>23.15540364583333</v>
       </c>
       <c r="L140">
-        <v>53.26457702261622</v>
+        <v>63.40332044095751</v>
       </c>
       <c r="M140">
-        <v>48.54997235676154</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14">
+        <v>57.10972581509488</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
       <c r="A141" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B141">
-        <v>25.34114074707031</v>
+        <v>23.95854377746582</v>
       </c>
       <c r="C141">
-        <v>25.34114074707031</v>
+        <v>24.06988334655762</v>
       </c>
       <c r="D141">
-        <v>24.69518089294434</v>
+        <v>23.83091735839844</v>
       </c>
       <c r="E141">
-        <v>24.8128547668457</v>
+        <v>23.88518524169922</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>2959856</v>
       </c>
       <c r="G141">
-        <v>25.25122911349289</v>
+        <v>23.34754188520242</v>
       </c>
       <c r="H141">
-        <v>25.34557943344116</v>
+        <v>23.06690073013306</v>
       </c>
       <c r="I141">
-        <v>25.82472464243572</v>
+        <v>23.13503049214681</v>
       </c>
       <c r="L141">
-        <v>46.4862604031827</v>
+        <v>61.66471368295829</v>
       </c>
       <c r="M141">
-        <v>44.50133126850427</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14">
+        <v>56.13294987031359</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
       <c r="A142" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B142">
-        <v>24.81381225585937</v>
+        <v>23.90315055847168</v>
       </c>
       <c r="C142">
-        <v>25.07415580749512</v>
+        <v>24.52695274353028</v>
       </c>
       <c r="D142">
-        <v>24.70944976806641</v>
+        <v>23.89224243164062</v>
       </c>
       <c r="E142">
-        <v>24.8862361907959</v>
+        <v>24.28887557983398</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>38227344</v>
       </c>
       <c r="G142">
-        <v>25.21804793870225</v>
+        <v>23.43311767562347</v>
       </c>
       <c r="H142">
-        <v>25.22367935180664</v>
+        <v>23.16105613708496</v>
       </c>
       <c r="I142">
-        <v>25.76145922342937</v>
+        <v>23.14232788085938</v>
       </c>
       <c r="L142">
-        <v>47.53321530646711</v>
+        <v>67.35291003716154</v>
       </c>
       <c r="M142">
-        <v>45.18743960762205</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14">
+        <v>60.26642584040386</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B143">
-        <v>24.88088417053223</v>
+        <v>24.28868675231934</v>
       </c>
       <c r="C143">
-        <v>24.97867774963379</v>
+        <v>24.35337829589844</v>
       </c>
       <c r="D143">
-        <v>24.48585319519043</v>
+        <v>23.98316192626953</v>
       </c>
       <c r="E143">
-        <v>24.73274803161621</v>
+        <v>23.9987907409668</v>
       </c>
       <c r="F143">
-        <v>11179328</v>
+        <v>11377344</v>
       </c>
       <c r="G143">
-        <v>25.17392976533079</v>
+        <v>23.48454249974559</v>
       </c>
       <c r="H143">
-        <v>25.10675859451294</v>
+        <v>23.20678758621216</v>
       </c>
       <c r="I143">
-        <v>25.66282056172689</v>
+        <v>23.13962230682373</v>
       </c>
       <c r="L143">
-        <v>45.44125123909665</v>
+        <v>60.13914019913316</v>
       </c>
       <c r="M143">
-        <v>43.96318236923403</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14">
+        <v>56.17054790152626</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B144">
-        <v>24.73272323608398</v>
+        <v>23.99898147583008</v>
       </c>
       <c r="C144">
-        <v>24.83337783813477</v>
+        <v>24.0677261352539</v>
       </c>
       <c r="D144">
-        <v>24.26391410827637</v>
+        <v>23.8286361694336</v>
       </c>
       <c r="E144">
-        <v>24.26391410827637</v>
+        <v>23.92424583435058</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>6278528</v>
       </c>
       <c r="G144">
-        <v>25.09120106923493</v>
+        <v>23.52451553016423</v>
       </c>
       <c r="H144">
-        <v>24.99194383621216</v>
+        <v>23.26804208755493</v>
       </c>
       <c r="I144">
-        <v>25.59743251800537</v>
+        <v>23.14378032684326</v>
       </c>
       <c r="L144">
-        <v>39.47172568826849</v>
+        <v>58.3329425691272</v>
       </c>
       <c r="M144">
-        <v>40.36571829618796</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14">
+        <v>55.1335798192385</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
       <c r="A145" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B145">
-        <v>24.26644325256348</v>
+        <v>23.92277908325196</v>
       </c>
       <c r="C145">
-        <v>24.32918357849121</v>
+        <v>24.06818962097168</v>
       </c>
       <c r="D145">
-        <v>24.19978713989257</v>
+        <v>23.87921333312988</v>
       </c>
       <c r="E145">
-        <v>24.30895042419434</v>
+        <v>24.03048515319824</v>
       </c>
       <c r="F145">
         <v>0</v>
       </c>
       <c r="G145">
-        <v>25.02008737423125</v>
+        <v>23.57051276862187</v>
       </c>
       <c r="H145">
-        <v>24.88100137710571</v>
+        <v>23.32110557556152</v>
       </c>
       <c r="I145">
-        <v>25.50650602976481</v>
+        <v>23.15578759511312</v>
       </c>
       <c r="L145">
-        <v>40.31899603210989</v>
+        <v>60.24718006887827</v>
       </c>
       <c r="M145">
-        <v>40.86629535587242</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14">
+        <v>56.36980024821035</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
       <c r="A146" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B146">
-        <v>24.30984687805176</v>
+        <v>24.02994346618652</v>
       </c>
       <c r="C146">
-        <v>24.92027282714844</v>
+        <v>24.10880851745605</v>
       </c>
       <c r="D146">
-        <v>24.30984687805176</v>
+        <v>23.94294929504395</v>
       </c>
       <c r="E146">
-        <v>24.67563819885254</v>
+        <v>24.01473617553711</v>
       </c>
       <c r="F146">
-        <v>4673856</v>
+        <v>0</v>
       </c>
       <c r="G146">
-        <v>24.98877381283318</v>
+        <v>23.61089671470507</v>
       </c>
       <c r="H146">
-        <v>24.80138359069824</v>
+        <v>23.37024478912354</v>
       </c>
       <c r="I146">
-        <v>25.43711573282878</v>
+        <v>23.18332239786784</v>
       </c>
       <c r="L146">
-        <v>47.10154305675615</v>
+        <v>59.78909662893236</v>
       </c>
       <c r="M146">
-        <v>44.92030462581224</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14">
+        <v>56.12293121559926</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15">
       <c r="A147" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B147">
-        <v>24.68692207336425</v>
+        <v>24.00994491577148</v>
       </c>
       <c r="C147">
-        <v>24.93271255493164</v>
+        <v>24.07645034790039</v>
       </c>
       <c r="D147">
-        <v>24.58098220825196</v>
+        <v>23.95455169677734</v>
       </c>
       <c r="E147">
-        <v>24.84762191772461</v>
+        <v>24.00113677978516</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>319712</v>
       </c>
       <c r="G147">
-        <v>24.97594182236877</v>
+        <v>23.64637308425781</v>
       </c>
       <c r="H147">
-        <v>24.74380331039429</v>
+        <v>23.42840795516968</v>
       </c>
       <c r="I147">
-        <v>25.3733118057251</v>
+        <v>23.22110163370768</v>
       </c>
       <c r="L147">
-        <v>50.0941623392808</v>
+        <v>59.35071375270878</v>
       </c>
       <c r="M147">
-        <v>46.76375993131816</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14">
+        <v>55.895291897262</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15">
       <c r="A148" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B148">
-        <v>24.8450870513916</v>
+        <v>24.01126670837402</v>
       </c>
       <c r="C148">
-        <v>24.84783744812012</v>
+        <v>24.18926239013672</v>
       </c>
       <c r="D148">
-        <v>24.50566864013672</v>
+        <v>23.89350509643555</v>
       </c>
       <c r="E148">
-        <v>24.63825035095215</v>
+        <v>24.16924858093262</v>
       </c>
       <c r="F148">
-        <v>75424</v>
+        <v>989872</v>
       </c>
       <c r="G148">
-        <v>24.94524259769453</v>
+        <v>23.69390722031915</v>
       </c>
       <c r="H148">
-        <v>24.66791801452637</v>
+        <v>23.4998779296875</v>
       </c>
       <c r="I148">
-        <v>25.31552778879802</v>
+        <v>23.24999332427979</v>
       </c>
       <c r="L148">
-        <v>46.49195147455723</v>
+        <v>63.11208979143507</v>
       </c>
       <c r="M148">
-        <v>44.79806815906806</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14">
+        <v>58.15480961637456</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
       <c r="A149" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B149">
-        <v>24.63788795471192</v>
+        <v>24.17292213439941</v>
       </c>
       <c r="C149">
-        <v>24.80973434448243</v>
+        <v>24.4041690826416</v>
       </c>
       <c r="D149">
-        <v>24.62451553344727</v>
+        <v>23.91912841796875</v>
       </c>
       <c r="E149">
-        <v>24.65912437438965</v>
+        <v>23.91938781738281</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>7257504</v>
       </c>
       <c r="G149">
-        <v>24.91923185012136</v>
+        <v>23.71440545641585</v>
       </c>
       <c r="H149">
-        <v>24.62547044754028</v>
+        <v>23.5467830657959</v>
       </c>
       <c r="I149">
-        <v>25.25972347259522</v>
+        <v>23.27708079020182</v>
       </c>
       <c r="L149">
-        <v>46.92005955593587</v>
+        <v>54.65575596708931</v>
       </c>
       <c r="M149">
-        <v>45.04608307324475</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14">
+        <v>53.74749951638283</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15">
       <c r="A150" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B150">
-        <v>24.66136741638184</v>
+        <v>23.91996574401855</v>
       </c>
       <c r="C150">
-        <v>25.35055351257324</v>
+        <v>24.11063575744629</v>
       </c>
       <c r="D150">
-        <v>24.65982246398925</v>
+        <v>23.88510513305664</v>
       </c>
       <c r="E150">
-        <v>24.84912300109864</v>
+        <v>23.90752220153809</v>
       </c>
       <c r="F150">
-        <v>30750208</v>
+        <v>5262256</v>
       </c>
       <c r="G150">
-        <v>24.91285831839202</v>
+        <v>23.73196152415423</v>
       </c>
       <c r="H150">
-        <v>24.58837089538574</v>
+        <v>23.61079263687134</v>
       </c>
       <c r="I150">
-        <v>25.19033425649007</v>
+        <v>23.33717683156332</v>
       </c>
       <c r="L150">
-        <v>50.93947864279649</v>
+        <v>54.26729048066129</v>
       </c>
       <c r="M150">
-        <v>47.36419176621433</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14">
+        <v>53.53998755248691</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15">
       <c r="A151" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B151">
-        <v>24.84707069396973</v>
+        <v>23.9078311920166</v>
       </c>
       <c r="C151">
-        <v>25.0671615600586</v>
+        <v>23.9507999420166</v>
       </c>
       <c r="D151">
-        <v>24.68748474121094</v>
+        <v>23.7308464050293</v>
       </c>
       <c r="E151">
-        <v>24.99735260009766</v>
+        <v>23.8202075958252</v>
       </c>
       <c r="F151">
-        <v>3734768</v>
+        <v>11655888</v>
       </c>
       <c r="G151">
-        <v>24.9205396167289</v>
+        <v>23.73998389430613</v>
       </c>
       <c r="H151">
-        <v>24.57848987579346</v>
+        <v>23.665185546875</v>
       </c>
       <c r="I151">
-        <v>25.12568492889404</v>
+        <v>23.38042170206706</v>
       </c>
       <c r="J151">
-        <v>23.68195250193278</v>
+        <v>23.96288283030192</v>
       </c>
       <c r="L151">
-        <v>53.99691096628599</v>
+        <v>51.25168962856053</v>
       </c>
       <c r="M151">
-        <v>49.16579973209061</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14">
+        <v>51.95050435554696</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15">
       <c r="A152" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B152">
-        <v>24.99948692321777</v>
+        <v>23.81885719299316</v>
       </c>
       <c r="C152">
-        <v>25.01261138916016</v>
+        <v>23.86369895935058</v>
       </c>
       <c r="D152">
-        <v>24.49637985229492</v>
+        <v>23.48815727233887</v>
       </c>
       <c r="E152">
-        <v>24.49637985229492</v>
+        <v>23.56815147399902</v>
       </c>
       <c r="F152">
-        <v>1725328</v>
+        <v>7921536</v>
       </c>
       <c r="G152">
-        <v>24.88197963814399</v>
+        <v>23.7243627651873</v>
       </c>
       <c r="H152">
-        <v>24.52957534790039</v>
+        <v>23.70685129165649</v>
       </c>
       <c r="I152">
-        <v>25.03142299652099</v>
+        <v>23.41916783650716</v>
       </c>
       <c r="J152">
-        <v>23.69273961915612</v>
+        <v>23.95765460041711</v>
       </c>
       <c r="L152">
-        <v>43.65327523885345</v>
+        <v>43.41644050907193</v>
       </c>
       <c r="M152">
-        <v>43.71931603938236</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14">
+        <v>47.56092408256032</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
       <c r="A153" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B153">
-        <v>24.48846817016602</v>
+        <v>23.56807899475098</v>
       </c>
       <c r="C153">
-        <v>24.58972930908203</v>
+        <v>23.6902084350586</v>
       </c>
       <c r="D153">
-        <v>23.88496589660645</v>
+        <v>23.39654922485352</v>
       </c>
       <c r="E153">
-        <v>24.06995391845703</v>
+        <v>23.49101257324219</v>
       </c>
       <c r="F153">
-        <v>25033680</v>
+        <v>5455424</v>
       </c>
       <c r="G153">
-        <v>24.80815911817245</v>
+        <v>23.70314911137411</v>
       </c>
       <c r="H153">
-        <v>24.51824197769165</v>
+        <v>23.76463031768799</v>
       </c>
       <c r="I153">
-        <v>24.93138268788656</v>
+        <v>23.43272953033447</v>
       </c>
       <c r="J153">
-        <v>23.6977358350409</v>
+        <v>23.95147391131546</v>
       </c>
       <c r="L153">
-        <v>36.88686824638668</v>
+        <v>41.24549054781571</v>
       </c>
       <c r="M153">
-        <v>39.68901394611001</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14">
+        <v>46.2723318981874</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
       <c r="A154" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B154">
-        <v>24.07149124145508</v>
+        <v>23.49448585510254</v>
       </c>
       <c r="C154">
-        <v>24.23923110961914</v>
+        <v>23.71640014648437</v>
       </c>
       <c r="D154">
-        <v>23.87754821777344</v>
+        <v>23.37606430053711</v>
       </c>
       <c r="E154">
-        <v>24.07995796203613</v>
+        <v>23.6270751953125</v>
       </c>
       <c r="F154">
-        <v>19183680</v>
+        <v>0</v>
       </c>
       <c r="G154">
-        <v>24.74195901306915</v>
+        <v>23.69623330082305</v>
       </c>
       <c r="H154">
-        <v>24.50167646408081</v>
+        <v>23.78693990707398</v>
       </c>
       <c r="I154">
-        <v>24.84870764414469</v>
+        <v>23.46366017659505</v>
       </c>
       <c r="J154">
-        <v>23.70279837976932</v>
+        <v>23.94717723958032</v>
       </c>
       <c r="L154">
-        <v>37.14400990611453</v>
+        <v>46.54906664147438</v>
       </c>
       <c r="M154">
-        <v>39.82915552200816</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14">
+        <v>48.90210507471948</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15">
       <c r="A155" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B155">
-        <v>24.07952690124512</v>
+        <v>23.62603187561035</v>
       </c>
       <c r="C155">
-        <v>24.09162521362305</v>
+        <v>23.63439750671387</v>
       </c>
       <c r="D155">
-        <v>23.43203544616699</v>
+        <v>23.40110969543457</v>
       </c>
       <c r="E155">
-        <v>23.79950523376465</v>
+        <v>23.40520286560058</v>
       </c>
       <c r="F155">
-        <v>34462176</v>
+        <v>0</v>
       </c>
       <c r="G155">
-        <v>24.65628139676874</v>
+        <v>23.6697759885301</v>
       </c>
       <c r="H155">
-        <v>24.5033371925354</v>
+        <v>23.79539375305176</v>
       </c>
       <c r="I155">
-        <v>24.75776449839274</v>
+        <v>23.47819309234619</v>
       </c>
       <c r="J155">
-        <v>23.7040792652527</v>
+        <v>23.93999877105079</v>
       </c>
       <c r="L155">
-        <v>32.91461612007373</v>
+        <v>39.93592038644217</v>
       </c>
       <c r="M155">
-        <v>37.21822675643247</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14">
+        <v>45.03144384361524</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15">
       <c r="A156" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B156">
-        <v>23.78695297241211</v>
+        <v>23.40615272521973</v>
       </c>
       <c r="C156">
-        <v>24.14299583435058</v>
+        <v>23.60274696350098</v>
       </c>
       <c r="D156">
-        <v>23.33428001403809</v>
+        <v>23.38468551635743</v>
       </c>
       <c r="E156">
-        <v>23.67026710510254</v>
+        <v>23.49002265930176</v>
       </c>
       <c r="F156">
-        <v>17333088</v>
+        <v>0</v>
       </c>
       <c r="G156">
-        <v>24.56664373388999</v>
+        <v>23.65343477678207</v>
       </c>
       <c r="H156">
-        <v>24.48622045516968</v>
+        <v>23.81159067153931</v>
       </c>
       <c r="I156">
-        <v>24.67117360432943</v>
+        <v>23.49346211751302</v>
       </c>
       <c r="J156">
-        <v>23.7036314220719</v>
+        <v>23.9340388225508</v>
       </c>
       <c r="L156">
-        <v>31.07996547384706</v>
+        <v>43.39453448327136</v>
       </c>
       <c r="M156">
-        <v>36.04559461503715</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14">
+        <v>46.76614348761978</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15">
       <c r="A157" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B157">
-        <v>23.67889976501465</v>
+        <v>23.49007987976075</v>
       </c>
       <c r="C157">
-        <v>23.8977108001709</v>
+        <v>23.60079956054688</v>
       </c>
       <c r="D157">
-        <v>23.00566482543945</v>
+        <v>23.08075904846192</v>
       </c>
       <c r="E157">
-        <v>23.18869209289551</v>
+        <v>23.60079956054688</v>
       </c>
       <c r="F157">
-        <v>23683072</v>
+        <v>13302240</v>
       </c>
       <c r="G157">
-        <v>24.44137540289049</v>
+        <v>23.64864975712432</v>
       </c>
       <c r="H157">
-        <v>24.43638734817505</v>
+        <v>23.840207862854</v>
       </c>
       <c r="I157">
-        <v>24.57748908996582</v>
+        <v>23.51889298756917</v>
       </c>
       <c r="J157">
-        <v>23.69681103360599</v>
+        <v>23.92962505749115</v>
       </c>
       <c r="L157">
-        <v>25.19323307125463</v>
+        <v>47.81002440237923</v>
       </c>
       <c r="M157">
-        <v>31.99973784885053</v>
-      </c>
-      <c r="N157" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14">
+        <v>49.02856491308267</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15">
       <c r="A158" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B158">
-        <v>23.19394302368164</v>
+        <v>23.60629272460937</v>
       </c>
       <c r="C158">
-        <v>23.66159629821777</v>
+        <v>24.73902893066406</v>
       </c>
       <c r="D158">
-        <v>22.82422256469727</v>
+        <v>23.56522178649902</v>
       </c>
       <c r="E158">
-        <v>22.86775970458984</v>
+        <v>24.52856636047364</v>
       </c>
       <c r="F158">
-        <v>18025408</v>
+        <v>40865488</v>
       </c>
       <c r="G158">
-        <v>24.29831943031771</v>
+        <v>23.72864217561062</v>
       </c>
       <c r="H158">
-        <v>24.38739938735962</v>
+        <v>23.86738166809082</v>
       </c>
       <c r="I158">
-        <v>24.4678825378418</v>
+        <v>23.57851689656576</v>
       </c>
       <c r="J158">
-        <v>23.68583022130114</v>
+        <v>23.93755805488165</v>
       </c>
       <c r="L158">
-        <v>22.06057672852005</v>
+        <v>69.91859853747499</v>
       </c>
       <c r="M158">
-        <v>29.61416802429862</v>
-      </c>
-      <c r="N158" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14">
+        <v>63.15278654363097</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15">
       <c r="A159" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B159">
-        <v>22.88327217102051</v>
+        <v>24.52867889404297</v>
       </c>
       <c r="C159">
-        <v>23.42413902282715</v>
+        <v>24.84848976135254</v>
       </c>
       <c r="D159">
-        <v>22.88327217102051</v>
+        <v>24.41370391845703</v>
       </c>
       <c r="E159">
-        <v>23.30249786376953</v>
+        <v>24.69743728637696</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>15483792</v>
       </c>
       <c r="G159">
-        <v>24.20779019699514</v>
+        <v>23.81671445840756</v>
       </c>
       <c r="H159">
-        <v>24.32430791854858</v>
+        <v>23.91623754501343</v>
       </c>
       <c r="I159">
-        <v>24.39436327616374</v>
+        <v>23.63572196960449</v>
       </c>
       <c r="J159">
-        <v>23.68075297153251</v>
+        <v>23.94762268046437</v>
       </c>
       <c r="L159">
-        <v>34.47682817736488</v>
+        <v>72.31971272169918</v>
       </c>
       <c r="M159">
-        <v>36.5180716492355</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14">
+        <v>65.05111653356691</v>
+      </c>
+      <c r="O159" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15">
       <c r="A160" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B160">
-        <v>23.29999351501465</v>
+        <v>24.69758033752441</v>
       </c>
       <c r="C160">
-        <v>23.78384017944336</v>
+        <v>24.88009262084961</v>
       </c>
       <c r="D160">
-        <v>23.09395408630371</v>
+        <v>24.52457237243652</v>
       </c>
       <c r="E160">
-        <v>23.10676383972168</v>
+        <v>24.79926681518555</v>
       </c>
       <c r="F160">
-        <v>8623104</v>
+        <v>20750016</v>
       </c>
       <c r="G160">
-        <v>24.10769689178846</v>
+        <v>23.90603739993283</v>
       </c>
       <c r="H160">
-        <v>24.21267957687378</v>
+        <v>23.95836782455444</v>
       </c>
       <c r="I160">
-        <v>24.31155160268148</v>
+        <v>23.70811983744303</v>
       </c>
       <c r="J160">
-        <v>23.67315046647542</v>
+        <v>23.95890273522889</v>
       </c>
       <c r="L160">
-        <v>31.90258115781686</v>
+        <v>73.74156649075603</v>
       </c>
       <c r="M160">
-        <v>34.86015740978062</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14">
+        <v>66.18250570297349</v>
+      </c>
+      <c r="O160" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15">
       <c r="A161" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B161">
-        <v>23.11221122741699</v>
+        <v>24.78250122070312</v>
       </c>
       <c r="C161">
-        <v>23.21736526489257</v>
+        <v>25.00503730773925</v>
       </c>
       <c r="D161">
-        <v>21.97757530212402</v>
+        <v>24.58132743835449</v>
       </c>
       <c r="E161">
-        <v>22.10464096069336</v>
+        <v>24.89596939086914</v>
       </c>
       <c r="F161">
-        <v>70642944</v>
+        <v>21657440</v>
       </c>
       <c r="G161">
-        <v>23.92560089805255</v>
+        <v>23.99603121729068</v>
       </c>
       <c r="H161">
-        <v>24.07726888656616</v>
+        <v>24.00890703201294</v>
       </c>
       <c r="I161">
-        <v>24.20854053497315</v>
+        <v>23.78024050394694</v>
       </c>
       <c r="J161">
-        <v>23.65237550613394</v>
+        <v>23.97131421411154</v>
       </c>
       <c r="L161">
-        <v>22.30854524465485</v>
+        <v>75.10761964612202</v>
       </c>
       <c r="M161">
-        <v>27.88101395698819</v>
-      </c>
-      <c r="N161" t="s">
+        <v>67.2662418802519</v>
+      </c>
+      <c r="O161" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:15">
       <c r="A162" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B162">
-        <v>22.10587310791016</v>
+        <v>24.90242958068848</v>
       </c>
       <c r="C162">
-        <v>22.61686134338379</v>
+        <v>25.05238342285156</v>
       </c>
       <c r="D162">
-        <v>21.82375717163086</v>
+        <v>24.73100280761719</v>
       </c>
       <c r="E162">
-        <v>22.52286148071289</v>
+        <v>25.05238342285156</v>
       </c>
       <c r="F162">
-        <v>18634912</v>
+        <v>16708144</v>
       </c>
       <c r="G162">
-        <v>23.79807913283985</v>
+        <v>24.09206323597803</v>
       </c>
       <c r="H162">
-        <v>23.95910015106201</v>
+        <v>24.04708242416382</v>
       </c>
       <c r="I162">
-        <v>24.1101469039917</v>
+        <v>23.85749206542969</v>
       </c>
       <c r="J162">
-        <v>23.63741505546611</v>
+        <v>23.9856330115783</v>
       </c>
       <c r="L162">
-        <v>31.92083048080557</v>
+        <v>77.26027355767606</v>
       </c>
       <c r="M162">
-        <v>33.83452620794012</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14">
+        <v>68.99689371763358</v>
+      </c>
+      <c r="O162" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15">
       <c r="A163" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B163">
-        <v>22.52351951599121</v>
+        <v>25.04635047912598</v>
       </c>
       <c r="C163">
-        <v>22.75123786926269</v>
+        <v>25.35462951660156</v>
       </c>
       <c r="D163">
-        <v>22.34157752990723</v>
+        <v>24.61160087585449</v>
       </c>
       <c r="E163">
-        <v>22.4057674407959</v>
+        <v>25.2469367980957</v>
       </c>
       <c r="F163">
-        <v>2860000</v>
+        <v>80469600</v>
       </c>
       <c r="G163">
-        <v>23.67150534265404</v>
+        <v>24.19705174162509</v>
       </c>
       <c r="H163">
-        <v>23.842751121521</v>
+        <v>24.10948972702026</v>
       </c>
       <c r="I163">
-        <v>24.04711844126383</v>
+        <v>23.95454222361247</v>
       </c>
       <c r="J163">
-        <v>23.62110184202677</v>
+        <v>24.00233902199575</v>
       </c>
       <c r="L163">
-        <v>30.72352117258448</v>
+        <v>79.71497618297168</v>
       </c>
       <c r="M163">
-        <v>33.01281292731959</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14">
+        <v>71.04734729614999</v>
+      </c>
+      <c r="O163" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15">
       <c r="A164" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B164">
-        <v>22.39608764648437</v>
+        <v>25.26480865478516</v>
       </c>
       <c r="C164">
-        <v>23.08416175842285</v>
+        <v>26.20924377441406</v>
       </c>
       <c r="D164">
-        <v>22.32744979858398</v>
+        <v>25.26480865478516</v>
       </c>
       <c r="E164">
-        <v>23.08416175842285</v>
+        <v>25.77780532836914</v>
       </c>
       <c r="F164">
-        <v>5043520</v>
+        <v>48336544</v>
       </c>
       <c r="G164">
-        <v>23.61811047136029</v>
+        <v>24.34075661314728</v>
       </c>
       <c r="H164">
-        <v>23.78376350402832</v>
+        <v>24.20216770172119</v>
       </c>
       <c r="I164">
-        <v>24.00288155873617</v>
+        <v>24.04110628763835</v>
       </c>
       <c r="J164">
-        <v>23.61399005283997</v>
+        <v>24.02585513201394</v>
       </c>
       <c r="L164">
-        <v>44.33270875216049</v>
+        <v>84.76380728471834</v>
       </c>
       <c r="M164">
-        <v>41.82755518213332</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14">
+        <v>75.75859023983999</v>
+      </c>
+      <c r="O164" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15">
       <c r="A165" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B165">
-        <v>23.08535766601562</v>
+        <v>25.7719955444336</v>
       </c>
       <c r="C165">
-        <v>23.13461494445801</v>
+        <v>25.92314338684082</v>
       </c>
       <c r="D165">
-        <v>22.68454170227051</v>
+        <v>25.28974151611328</v>
       </c>
       <c r="E165">
-        <v>22.69915580749512</v>
+        <v>25.32283592224121</v>
       </c>
       <c r="F165">
-        <v>8949856</v>
+        <v>19089728</v>
       </c>
       <c r="G165">
-        <v>23.53456913828164</v>
+        <v>24.43003655033764</v>
       </c>
       <c r="H165">
-        <v>23.70327377319336</v>
+        <v>24.26678524017334</v>
       </c>
       <c r="I165">
-        <v>23.96731039683024</v>
+        <v>24.11066328684489</v>
       </c>
       <c r="J165">
-        <v>23.60187304296785</v>
+        <v>24.04303368552688</v>
       </c>
       <c r="L165">
-        <v>39.39197032413848</v>
+        <v>68.35937701105881</v>
       </c>
       <c r="M165">
-        <v>38.7140047818236</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14">
+        <v>65.86642965195999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15">
       <c r="A166" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B166">
-        <v>22.69921684265137</v>
+        <v>25.33574295043945</v>
       </c>
       <c r="C166">
-        <v>23.13212585449219</v>
+        <v>25.62113571166992</v>
       </c>
       <c r="D166">
-        <v>22.69073295593262</v>
+        <v>24.74111175537109</v>
       </c>
       <c r="E166">
-        <v>22.96921539306641</v>
+        <v>25.48471260070801</v>
       </c>
       <c r="F166">
-        <v>1542912</v>
+        <v>49695424</v>
       </c>
       <c r="G166">
-        <v>23.48317334326207</v>
+        <v>24.5259161912804</v>
       </c>
       <c r="H166">
-        <v>23.61795263290405</v>
+        <v>24.34028406143188</v>
       </c>
       <c r="I166">
-        <v>23.93253084818522</v>
+        <v>24.1879508972168</v>
       </c>
       <c r="J166">
-        <v>23.59349347144598</v>
+        <v>24.06212877049617</v>
       </c>
       <c r="L166">
-        <v>44.29128580760246</v>
+        <v>70.63419775220864</v>
       </c>
       <c r="M166">
-        <v>41.97667280082874</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14">
+        <v>67.49282198023509</v>
+      </c>
+      <c r="O166" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15">
       <c r="A167" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B167">
-        <v>22.96899223327637</v>
+        <v>25.48546600341797</v>
       </c>
       <c r="C167">
-        <v>23.39556694030762</v>
+        <v>25.78190994262696</v>
       </c>
       <c r="D167">
-        <v>22.87363243103028</v>
+        <v>25.28961944580078</v>
       </c>
       <c r="E167">
-        <v>23.03195190429688</v>
+        <v>25.7610969543457</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>18651328</v>
       </c>
       <c r="G167">
-        <v>23.44215321244705</v>
+        <v>24.63820535155906</v>
       </c>
       <c r="H167">
-        <v>23.52716913223266</v>
+        <v>24.42828207015991</v>
       </c>
       <c r="I167">
-        <v>23.89408410390218</v>
+        <v>24.27903893788656</v>
       </c>
       <c r="J167">
-        <v>23.586055834795</v>
+        <v>24.08463166034849</v>
       </c>
       <c r="L167">
-        <v>45.44384251982921</v>
+        <v>74.19744931813689</v>
       </c>
       <c r="M167">
-        <v>42.739302523151</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14">
+        <v>70.11138617772158</v>
+      </c>
+      <c r="O167" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15">
       <c r="A168" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B168">
-        <v>23.03424263000488</v>
+        <v>25.75515556335449</v>
       </c>
       <c r="C168">
-        <v>23.08283615112305</v>
+        <v>25.75515556335449</v>
       </c>
       <c r="D168">
-        <v>22.66835403442383</v>
+        <v>24.82783126831055</v>
       </c>
       <c r="E168">
-        <v>22.8378734588623</v>
+        <v>25.16024208068848</v>
       </c>
       <c r="F168">
-        <v>1305568</v>
+        <v>34465440</v>
       </c>
       <c r="G168">
-        <v>23.38721868939389</v>
+        <v>24.68566323602537</v>
       </c>
       <c r="H168">
-        <v>23.43715028762817</v>
+        <v>24.4778317451477</v>
       </c>
       <c r="I168">
-        <v>23.86042925516764</v>
+        <v>24.31821066538493</v>
       </c>
       <c r="J168">
-        <v>23.57614613445152</v>
+        <v>24.09887815598213</v>
       </c>
       <c r="L168">
-        <v>42.39153835015873</v>
+        <v>57.21732631946701</v>
       </c>
       <c r="M168">
-        <v>40.9463534512453</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14">
+        <v>58.98689167939853</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15">
       <c r="A169" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B169">
-        <v>22.83903884887696</v>
+        <v>25.15895462036133</v>
       </c>
       <c r="C169">
-        <v>23.01462936401367</v>
+        <v>25.1697769165039</v>
       </c>
       <c r="D169">
-        <v>22.59831237792969</v>
+        <v>24.41454887390137</v>
       </c>
       <c r="E169">
-        <v>22.73984909057617</v>
+        <v>24.72249984741211</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>3374336</v>
       </c>
       <c r="G169">
-        <v>23.32836690768319</v>
+        <v>24.68901201887871</v>
       </c>
       <c r="H169">
-        <v>23.3411865234375</v>
+        <v>24.51798734664917</v>
       </c>
       <c r="I169">
-        <v>23.79961331685384</v>
+        <v>24.35161666870117</v>
       </c>
       <c r="J169">
-        <v>23.56506935241343</v>
+        <v>24.10713804593484</v>
       </c>
       <c r="L169">
-        <v>40.83315267971108</v>
+        <v>48.18034919685934</v>
       </c>
       <c r="M169">
-        <v>40.0328741206905</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14">
+        <v>52.45669581156652</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15">
       <c r="A170" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B170">
-        <v>22.74092102050781</v>
+        <v>24.73557281494141</v>
       </c>
       <c r="C170">
-        <v>23.03643608093262</v>
+        <v>25.16965484619141</v>
       </c>
       <c r="D170">
-        <v>22.56205368041992</v>
+        <v>24.73557281494141</v>
       </c>
       <c r="E170">
-        <v>22.98128509521484</v>
+        <v>25.00646591186523</v>
       </c>
       <c r="F170">
         <v>0</v>
       </c>
       <c r="G170">
-        <v>23.29681401564061</v>
+        <v>24.71787146369567</v>
       </c>
       <c r="H170">
-        <v>23.24779462814331</v>
+        <v>24.57293453216553</v>
       </c>
       <c r="I170">
-        <v>23.72101179758708</v>
+        <v>24.3866101582845</v>
       </c>
       <c r="J170">
-        <v>23.55733711059623</v>
+        <v>24.11904967329816</v>
       </c>
       <c r="L170">
-        <v>46.30289819881716</v>
+        <v>53.53600531448274</v>
       </c>
       <c r="M170">
-        <v>43.3831594173695</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14">
+        <v>55.86972503048313</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15">
       <c r="A171" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B171">
-        <v>22.98319816589355</v>
+        <v>25.0081787109375</v>
       </c>
       <c r="C171">
-        <v>23.01634407043457</v>
+        <v>25.02965927124023</v>
       </c>
       <c r="D171">
-        <v>22.51918792724609</v>
+        <v>24.24071502685547</v>
       </c>
       <c r="E171">
-        <v>22.6273307800293</v>
+        <v>24.36402893066406</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>1485280</v>
       </c>
       <c r="G171">
-        <v>23.23595190331231</v>
+        <v>24.68570396069279</v>
       </c>
       <c r="H171">
-        <v>23.12929353713989</v>
+        <v>24.60012559890747</v>
       </c>
       <c r="I171">
-        <v>23.64816099802653</v>
+        <v>24.40257161458333</v>
       </c>
       <c r="J171">
-        <v>23.54501914595296</v>
+        <v>24.12229443167387</v>
       </c>
       <c r="L171">
-        <v>40.1770719628251</v>
+        <v>42.386362350041</v>
       </c>
       <c r="M171">
-        <v>39.86667697528043</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14">
+        <v>47.55259256912534</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15">
       <c r="A172" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B172">
-        <v>22.62676620483398</v>
+        <v>24.36039733886719</v>
       </c>
       <c r="C172">
-        <v>22.73234939575196</v>
+        <v>24.38722610473633</v>
       </c>
       <c r="D172">
-        <v>22.34008598327637</v>
+        <v>23.57767486572266</v>
       </c>
       <c r="E172">
-        <v>22.73234939575196</v>
+        <v>23.65089797973633</v>
       </c>
       <c r="F172">
-        <v>3931344</v>
+        <v>15361120</v>
       </c>
       <c r="G172">
-        <v>23.19016985717046</v>
+        <v>24.59163068969675</v>
       </c>
       <c r="H172">
-        <v>23.04109201431275</v>
+        <v>24.60426292419434</v>
       </c>
       <c r="I172">
-        <v>23.57636477152506</v>
+        <v>24.38130569458008</v>
       </c>
       <c r="J172">
-        <v>23.53425530820195</v>
+        <v>24.1160507700588</v>
       </c>
       <c r="L172">
-        <v>42.70711991991731</v>
+        <v>33.63784529733655</v>
       </c>
       <c r="M172">
-        <v>41.38478065371751</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14">
+        <v>40.36862338682221</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15">
       <c r="A173" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B173">
-        <v>22.73390769958496</v>
+        <v>23.64932632446289</v>
       </c>
       <c r="C173">
-        <v>22.87007522583008</v>
+        <v>23.90229225158692</v>
       </c>
       <c r="D173">
-        <v>22.60478019714355</v>
+        <v>23.56591606140137</v>
       </c>
       <c r="E173">
-        <v>22.73483657836914</v>
+        <v>23.85916709899902</v>
       </c>
       <c r="F173">
         <v>0</v>
       </c>
       <c r="G173">
-        <v>23.14877592273397</v>
+        <v>24.52504309054241</v>
       </c>
       <c r="H173">
-        <v>22.97433614730835</v>
+        <v>24.62267065048218</v>
       </c>
       <c r="I173">
-        <v>23.5097677230835</v>
+        <v>24.37665157318115</v>
       </c>
       <c r="J173">
-        <v>23.5236669806545</v>
+        <v>24.11264833732954</v>
       </c>
       <c r="L173">
-        <v>42.77160608521114</v>
+        <v>37.85230075914475</v>
       </c>
       <c r="M173">
-        <v>41.42249817486319</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14">
+        <v>43.07348551035985</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15">
       <c r="A174" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B174">
-        <v>22.73707008361816</v>
+        <v>23.85461807250977</v>
       </c>
       <c r="C174">
-        <v>22.97155380249023</v>
+        <v>24.0198974609375</v>
       </c>
       <c r="D174">
-        <v>22.24820518493652</v>
+        <v>23.64699745178223</v>
       </c>
       <c r="E174">
-        <v>22.3354320526123</v>
+        <v>23.64699745178223</v>
       </c>
       <c r="F174">
-        <v>4615152</v>
+        <v>0</v>
       </c>
       <c r="G174">
-        <v>23.07483557090473</v>
+        <v>24.44522075974603</v>
       </c>
       <c r="H174">
-        <v>22.88710985183716</v>
+        <v>24.62366676330566</v>
       </c>
       <c r="I174">
-        <v>23.44548498789469</v>
+        <v>24.36740996042887</v>
       </c>
       <c r="J174">
-        <v>23.50792876968706</v>
+        <v>24.10648077593156</v>
       </c>
       <c r="L174">
-        <v>35.544061497389</v>
+        <v>35.28419943728064</v>
       </c>
       <c r="M174">
-        <v>37.27453429996298</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14">
+        <v>41.03159812190727</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15">
       <c r="A175" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B175">
-        <v>22.33202743530273</v>
+        <v>23.64945983886719</v>
       </c>
       <c r="C175">
-        <v>23.50152015686035</v>
+        <v>24.50849723815918</v>
       </c>
       <c r="D175">
-        <v>22.29487800598145</v>
+        <v>23.60983085632324</v>
       </c>
       <c r="E175">
-        <v>23.18088340759277</v>
+        <v>24.37167167663575</v>
       </c>
       <c r="F175">
-        <v>56967344</v>
+        <v>338464</v>
       </c>
       <c r="G175">
-        <v>23.08447628333091</v>
+        <v>24.43853447946328</v>
       </c>
       <c r="H175">
-        <v>22.85617876052856</v>
+        <v>24.67199020385742</v>
       </c>
       <c r="I175">
-        <v>23.40788275400798</v>
+        <v>24.37878284454346</v>
       </c>
       <c r="J175">
-        <v>23.5035970430368</v>
+        <v>24.10999323819254</v>
       </c>
       <c r="L175">
-        <v>54.03899891163178</v>
+        <v>48.66655014124034</v>
       </c>
       <c r="M175">
-        <v>48.93208102400386</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14">
+        <v>49.78710468719682</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15">
       <c r="A176" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B176">
-        <v>23.17977142333984</v>
+        <v>24.35404205322266</v>
       </c>
       <c r="C176">
-        <v>23.33259201049805</v>
+        <v>24.8953685760498</v>
       </c>
       <c r="D176">
-        <v>22.9406623840332</v>
+        <v>24.08867645263672</v>
       </c>
       <c r="E176">
-        <v>23.23612594604492</v>
+        <v>24.41618156433105</v>
       </c>
       <c r="F176">
-        <v>5120288</v>
+        <v>35735248</v>
       </c>
       <c r="G176">
-        <v>23.09826261630491</v>
+        <v>24.43650239626944</v>
       </c>
       <c r="H176">
-        <v>22.83447170257568</v>
+        <v>24.71829814910889</v>
       </c>
       <c r="I176">
-        <v>23.35989901224772</v>
+        <v>24.39216435750325</v>
       </c>
       <c r="J176">
-        <v>23.50005437950048</v>
+        <v>24.11404871271093</v>
       </c>
       <c r="L176">
-        <v>54.98840466702681</v>
+        <v>49.38969817989695</v>
       </c>
       <c r="M176">
-        <v>49.59131311506075</v>
+        <v>50.27545459341678</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -7049,37 +7046,37 @@
         <v>189</v>
       </c>
       <c r="B177">
-        <v>23.23965263366699</v>
+        <v>24.41888427734375</v>
       </c>
       <c r="C177">
-        <v>23.39934349060058</v>
+        <v>24.57303047180176</v>
       </c>
       <c r="D177">
-        <v>22.91721343994141</v>
+        <v>24.27412605285645</v>
       </c>
       <c r="E177">
-        <v>23.16608428955078</v>
+        <v>24.39918708801269</v>
       </c>
       <c r="F177">
-        <v>5142016</v>
+        <v>0</v>
       </c>
       <c r="G177">
-        <v>23.10442822296363</v>
+        <v>24.43311009551882</v>
       </c>
       <c r="H177">
-        <v>22.83334131240845</v>
+        <v>24.75821752548218</v>
       </c>
       <c r="I177">
-        <v>23.30384775797526</v>
+        <v>24.40543270111084</v>
       </c>
       <c r="J177">
-        <v>23.49563093460049</v>
+        <v>24.11782537993347</v>
       </c>
       <c r="L177">
-        <v>53.41457593421873</v>
+        <v>49.09263629962893</v>
       </c>
       <c r="M177">
-        <v>48.73234905787909</v>
+        <v>50.07520366400362</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -7087,37 +7084,37 @@
         <v>190</v>
       </c>
       <c r="B178">
-        <v>23.16876602172852</v>
+        <v>24.40667533874512</v>
       </c>
       <c r="C178">
-        <v>23.3091869354248</v>
+        <v>24.74800300598145</v>
       </c>
       <c r="D178">
-        <v>23.00297355651855</v>
+        <v>24.36222839355469</v>
       </c>
       <c r="E178">
-        <v>23.02845573425293</v>
+        <v>24.68363952636719</v>
       </c>
       <c r="F178">
-        <v>1058592</v>
+        <v>1275584</v>
       </c>
       <c r="G178">
-        <v>23.09752163308083</v>
+        <v>24.45588549832322</v>
       </c>
       <c r="H178">
-        <v>22.8413761138916</v>
+        <v>24.76597118377686</v>
       </c>
       <c r="I178">
-        <v>23.25018793741862</v>
+        <v>24.42257906595866</v>
       </c>
       <c r="J178">
-        <v>23.48944318360251</v>
+        <v>24.12531960703856</v>
       </c>
       <c r="L178">
-        <v>50.23618257428742</v>
+        <v>54.27168665265776</v>
       </c>
       <c r="M178">
-        <v>47.00932927453997</v>
+        <v>53.41953222396166</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -7125,37 +7122,37 @@
         <v>191</v>
       </c>
       <c r="B179">
-        <v>23.03101348876953</v>
+        <v>24.6822681427002</v>
       </c>
       <c r="C179">
-        <v>24.05808258056641</v>
+        <v>24.90331649780273</v>
       </c>
       <c r="D179">
-        <v>23.02670669555664</v>
+        <v>24.65057563781738</v>
       </c>
       <c r="E179">
-        <v>23.9850902557373</v>
+        <v>24.87140846252441</v>
       </c>
       <c r="F179">
-        <v>44478400</v>
+        <v>7998112</v>
       </c>
       <c r="G179">
-        <v>23.17820968968597</v>
+        <v>24.4936603132506</v>
       </c>
       <c r="H179">
-        <v>22.87550573348999</v>
+        <v>24.77466974258423</v>
       </c>
       <c r="I179">
-        <v>23.22772013346354</v>
+        <v>24.45431308746338</v>
       </c>
       <c r="J179">
-        <v>23.49600804548509</v>
+        <v>24.13520157863439</v>
       </c>
       <c r="L179">
-        <v>66.03859840084927</v>
+        <v>57.48379802513814</v>
       </c>
       <c r="M179">
-        <v>58.09901686970667</v>
+        <v>55.5368760020612</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -7163,37 +7160,37 @@
         <v>192</v>
       </c>
       <c r="B180">
-        <v>23.98563766479492</v>
+        <v>24.87088394165039</v>
       </c>
       <c r="C180">
-        <v>24.00316047668457</v>
+        <v>24.8845157623291</v>
       </c>
       <c r="D180">
-        <v>23.57451820373535</v>
+        <v>24.70387077331543</v>
       </c>
       <c r="E180">
-        <v>23.7203197479248</v>
+        <v>24.80496025085449</v>
       </c>
       <c r="F180">
-        <v>10286752</v>
+        <v>6962240</v>
       </c>
       <c r="G180">
-        <v>23.22749242225314</v>
+        <v>24.52196030757823</v>
       </c>
       <c r="H180">
-        <v>22.90618352890015</v>
+        <v>24.77495441436768</v>
       </c>
       <c r="I180">
-        <v>23.19009335835775</v>
+        <v>24.48422768910726</v>
       </c>
       <c r="J180">
-        <v>23.49897906141144</v>
+        <v>24.14407255442539</v>
       </c>
       <c r="L180">
-        <v>60.09655952008768</v>
+        <v>55.91998602961673</v>
       </c>
       <c r="M180">
-        <v>54.68773153495627</v>
+        <v>54.59117423117846</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -7201,37 +7198,37 @@
         <v>193</v>
       </c>
       <c r="B181">
-        <v>23.71942329406738</v>
+        <v>24.80527877807617</v>
       </c>
       <c r="C181">
-        <v>24.01779556274414</v>
+        <v>25.14149284362793</v>
       </c>
       <c r="D181">
-        <v>23.71240615844727</v>
+        <v>24.38014411926269</v>
       </c>
       <c r="E181">
-        <v>23.95666122436523</v>
+        <v>25.14149284362793</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>5715104</v>
       </c>
       <c r="G181">
-        <v>23.29378049517242</v>
+        <v>24.5782814472191</v>
       </c>
       <c r="H181">
-        <v>22.99878454208374</v>
+        <v>24.78723058700562</v>
       </c>
       <c r="I181">
-        <v>23.15540364583333</v>
+        <v>24.52827053070068</v>
       </c>
       <c r="J181">
-        <v>23.5050410768148</v>
+        <v>24.15728341918304</v>
       </c>
       <c r="L181">
-        <v>63.40331616124323</v>
+        <v>61.83552989227837</v>
       </c>
       <c r="M181">
-        <v>57.10861747488663</v>
+        <v>58.45013928382255</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -7239,37 +7236,37 @@
         <v>194</v>
       </c>
       <c r="B182">
-        <v>23.95854377746582</v>
+        <v>25.14817810058594</v>
       </c>
       <c r="C182">
-        <v>24.06988334655762</v>
+        <v>25.35367202758789</v>
       </c>
       <c r="D182">
-        <v>23.83091735839844</v>
+        <v>25.14817810058594</v>
       </c>
       <c r="E182">
-        <v>23.94462966918945</v>
+        <v>25.29778861999512</v>
       </c>
       <c r="F182">
-        <v>2941664</v>
+        <v>3043280</v>
       </c>
       <c r="G182">
-        <v>23.35294860190124</v>
+        <v>24.64369119019874</v>
       </c>
       <c r="H182">
-        <v>23.06987295150757</v>
+        <v>24.79950084686279</v>
       </c>
       <c r="I182">
-        <v>23.13701197306315</v>
+        <v>24.58592510223389</v>
       </c>
       <c r="J182">
-        <v>23.51086344227672</v>
+        <v>24.17238944833287</v>
       </c>
       <c r="L182">
-        <v>63.10382643294706</v>
+        <v>64.33618278943399</v>
       </c>
       <c r="M182">
-        <v>56.94183267419063</v>
+        <v>60.14419224411004</v>
       </c>
     </row>
   </sheetData>
